--- a/model/Outputs/8. Fixed RE/With PV/Output Files/40/Output_0_27.xlsx
+++ b/model/Outputs/8. Fixed RE/With PV/Output Files/40/Output_0_27.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1046.15680985573</v>
+        <v>1065927.388817205</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1046.15680985573</v>
+        <v>1065927.388817205</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>98333.88625764393</v>
+        <v>6866397.935929358</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>98333.88625764393</v>
+        <v>6866397.935929358</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1646729455.933804</v>
+        <v>59358165.61854962</v>
       </c>
     </row>
   </sheetData>
@@ -670,7 +670,7 @@
         <v>449.4745782429939</v>
       </c>
       <c r="D2" t="n">
-        <v>410.3391557398498</v>
+        <v>410.3391557398489</v>
       </c>
       <c r="E2" t="n">
         <v>404.3632896068686</v>
@@ -746,19 +746,19 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>361.0999124455193</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>102.8373329378424</v>
+        <v>347.9376868977026</v>
       </c>
       <c r="E3" t="n">
-        <v>342.6720972219126</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>339.6362423378769</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>323.662110682525</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -812,7 +812,7 @@
         <v>419.8627394453875</v>
       </c>
       <c r="Y3" t="n">
-        <v>399.3913927661343</v>
+        <v>194.7646954533041</v>
       </c>
     </row>
     <row r="4">
@@ -949,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>6.982233028349953</v>
+        <v>6.982233028348955</v>
       </c>
       <c r="S5" t="n">
         <v>406.371246055701</v>
@@ -983,13 +983,13 @@
         <v>384.5565566463266</v>
       </c>
       <c r="C6" t="n">
-        <v>82.41654362107076</v>
+        <v>361.0999124455193</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>347.9376868977026</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>342.6720972219126</v>
       </c>
       <c r="F6" t="n">
         <v>339.6362423378769</v>
@@ -1037,13 +1037,13 @@
         <v>396.9842838494889</v>
       </c>
       <c r="U6" t="n">
-        <v>400.0736870501537</v>
+        <v>230.78053410609</v>
       </c>
       <c r="V6" t="n">
-        <v>414.5106671915202</v>
+        <v>14.51066719152016</v>
       </c>
       <c r="W6" t="n">
-        <v>432.3731429098285</v>
+        <v>32.37314290982852</v>
       </c>
       <c r="X6" t="n">
         <v>419.8627394453875</v>
@@ -1220,25 +1220,25 @@
         <v>384.5565566463266</v>
       </c>
       <c r="C9" t="n">
-        <v>361.0999124455193</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>347.9376868977026</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>342.6720972219126</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>339.6362423378769</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>323.662110682525</v>
+        <v>276.4517849848956</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>145.6010009740521</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1274,16 +1274,16 @@
         <v>396.9842838494889</v>
       </c>
       <c r="U9" t="n">
-        <v>307.1184234235649</v>
+        <v>400.0736870501537</v>
       </c>
       <c r="V9" t="n">
-        <v>14.51066719152016</v>
+        <v>414.5106671915202</v>
       </c>
       <c r="W9" t="n">
-        <v>32.37314290982852</v>
+        <v>432.3731429098285</v>
       </c>
       <c r="X9" t="n">
-        <v>19.86273944538755</v>
+        <v>419.8627394453875</v>
       </c>
       <c r="Y9" t="n">
         <v>399.3913927661343</v>
@@ -1384,7 +1384,7 @@
         <v>410.3391557398498</v>
       </c>
       <c r="E11" t="n">
-        <v>404.3632896068688</v>
+        <v>404.3632896068686</v>
       </c>
       <c r="F11" t="n">
         <v>404.8896287080119</v>
@@ -1454,7 +1454,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>384.5565566463266</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>361.0999124455193</v>
@@ -1466,7 +1466,7 @@
         <v>342.6720972219126</v>
       </c>
       <c r="F12" t="n">
-        <v>185.6185783204902</v>
+        <v>339.6362423378769</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1502,13 +1502,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>418.2912050771884</v>
       </c>
       <c r="S12" t="n">
-        <v>427.97673816528</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>396.9842838494889</v>
       </c>
       <c r="U12" t="n">
         <v>400.0736870501537</v>
@@ -1523,7 +1523,7 @@
         <v>419.8627394453875</v>
       </c>
       <c r="Y12" t="n">
-        <v>399.3913927661343</v>
+        <v>242.6315346336769</v>
       </c>
     </row>
     <row r="13">
@@ -1551,7 +1551,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>86.11672794030837</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>86.11672794030834</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1669,7 +1669,7 @@
         <v>569.6790825537603</v>
       </c>
       <c r="U14" t="n">
-        <v>648.9106809154903</v>
+        <v>648.9106809154906</v>
       </c>
       <c r="V14" t="n">
         <v>629.8510241668239</v>
@@ -1694,19 +1694,19 @@
         <v>384.5565566463266</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>361.0999124455193</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>347.9376868977026</v>
       </c>
       <c r="E15" t="n">
         <v>342.6720972219126</v>
       </c>
       <c r="F15" t="n">
-        <v>339.6362423378769</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>323.662110682525</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1742,10 +1742,10 @@
         <v>418.2912050771884</v>
       </c>
       <c r="S15" t="n">
-        <v>427.97673816528</v>
+        <v>195.3041114085815</v>
       </c>
       <c r="T15" t="n">
-        <v>396.9842838494889</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>400.0736870501537</v>
@@ -1757,10 +1757,10 @@
         <v>432.3731429098285</v>
       </c>
       <c r="X15" t="n">
-        <v>235.3364679281549</v>
+        <v>419.8627394453875</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>399.3913927661343</v>
       </c>
     </row>
     <row r="16">
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>86.11672794030837</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>86.11672794030837</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1861,7 +1861,7 @@
         <v>404.3632896068686</v>
       </c>
       <c r="F17" t="n">
-        <v>404.8896287080121</v>
+        <v>404.8896287080119</v>
       </c>
       <c r="G17" t="n">
         <v>399.8746768730119</v>
@@ -1928,7 +1928,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>384.5565566463266</v>
+        <v>232.9460015455853</v>
       </c>
       <c r="C18" t="n">
         <v>361.0999124455193</v>
@@ -1940,7 +1940,7 @@
         <v>342.6720972219126</v>
       </c>
       <c r="F18" t="n">
-        <v>185.6185783204902</v>
+        <v>339.6362423378769</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1982,7 +1982,7 @@
         <v>427.97673816528</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>396.9842838494889</v>
       </c>
       <c r="U18" t="n">
         <v>400.0736870501537</v>
@@ -1997,7 +1997,7 @@
         <v>419.8627394453875</v>
       </c>
       <c r="Y18" t="n">
-        <v>399.3913927661343</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2019,13 +2019,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
         <v>86.11672794030837</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2107,7 +2107,7 @@
         <v>368.2460042948564</v>
       </c>
       <c r="I20" t="n">
-        <v>0.3935447342857401</v>
+        <v>0.3935447342859982</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2168,22 +2168,22 @@
         <v>384.5565566463266</v>
       </c>
       <c r="C21" t="n">
-        <v>186.3598289730067</v>
+        <v>361.0999124455193</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>347.9376868977026</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>342.6720972219126</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>216.6110326362813</v>
       </c>
       <c r="G21" t="n">
-        <v>323.662110682525</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>312.1045333535693</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2213,16 +2213,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>418.2912050771884</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>427.97673816528</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>396.9842838494889</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>400.0736870501537</v>
       </c>
       <c r="V21" t="n">
         <v>414.5106671915202</v>
@@ -2262,49 +2262,49 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
         <v>86.11672794030837</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2402,25 +2402,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>384.5565566463266</v>
+        <v>232.9460015455853</v>
       </c>
       <c r="C24" t="n">
-        <v>186.3598289730068</v>
+        <v>361.0999124455193</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>347.9376868977026</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>342.6720972219126</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>339.6362423378769</v>
       </c>
       <c r="G24" t="n">
-        <v>323.662110682525</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>312.1045333535693</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2450,7 +2450,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>418.2912050771884</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>427.97673816528</v>
@@ -2459,7 +2459,7 @@
         <v>396.9842838494889</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>400.0736870501537</v>
       </c>
       <c r="V24" t="n">
         <v>414.5106671915202</v>
@@ -2471,7 +2471,7 @@
         <v>419.8627394453875</v>
       </c>
       <c r="Y24" t="n">
-        <v>399.3913927661343</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2499,7 +2499,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>86.11672794030834</v>
+        <v>86.11672794030837</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2578,7 +2578,7 @@
         <v>399.8746768730119</v>
       </c>
       <c r="H26" t="n">
-        <v>368.2460042948564</v>
+        <v>368.2460042948558</v>
       </c>
       <c r="I26" t="n">
         <v>0.3935447342857401</v>
@@ -2642,25 +2642,25 @@
         <v>384.5565566463266</v>
       </c>
       <c r="C27" t="n">
-        <v>361.0999124455193</v>
+        <v>144.2809869693567</v>
       </c>
       <c r="D27" t="n">
-        <v>347.9376868977026</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>342.6720972219126</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>323.662110682525</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>312.1045333535693</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>145.6010009740521</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2687,10 +2687,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>131.306391692914</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>427.97673816528</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>396.9842838494889</v>
@@ -2736,7 +2736,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>86.11672794030837</v>
+        <v>86.11672794030834</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2879,25 +2879,25 @@
         <v>384.5565566463266</v>
       </c>
       <c r="C30" t="n">
-        <v>186.3598289730067</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>347.9376868977026</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>327.9054908533273</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>323.662110682525</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>312.1045333535693</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>145.6010009740521</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2933,7 +2933,7 @@
         <v>396.9842838494889</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>400.0736870501537</v>
       </c>
       <c r="V30" t="n">
         <v>414.5106671915202</v>
@@ -2945,7 +2945,7 @@
         <v>419.8627394453875</v>
       </c>
       <c r="Y30" t="n">
-        <v>399.3913927661343</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2973,7 +2973,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>86.11672794030837</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3018,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>86.11672794030834</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3037,7 +3037,7 @@
         <v>481.9993129555745</v>
       </c>
       <c r="C32" t="n">
-        <v>449.4745782429949</v>
+        <v>449.4745782429939</v>
       </c>
       <c r="D32" t="n">
         <v>410.3391557398498</v>
@@ -3116,22 +3116,22 @@
         <v>384.5565566463266</v>
       </c>
       <c r="C33" t="n">
-        <v>109.9482526053783</v>
+        <v>361.0999124455193</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>347.9376868977026</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>342.6720972219126</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>339.6362423378769</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>312.1045333535693</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3161,10 +3161,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>418.2912050771884</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>427.97673816528</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>396.9842838494889</v>
@@ -3176,7 +3176,7 @@
         <v>414.5106671915202</v>
       </c>
       <c r="W33" t="n">
-        <v>432.3731429098285</v>
+        <v>309.3479332082327</v>
       </c>
       <c r="X33" t="n">
         <v>419.8627394453875</v>
@@ -3319,7 +3319,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>6.982233028349953</v>
+        <v>6.982233028350755</v>
       </c>
       <c r="S35" t="n">
         <v>406.371246055701</v>
@@ -3353,7 +3353,7 @@
         <v>384.5565566463266</v>
       </c>
       <c r="C36" t="n">
-        <v>131.5166888894858</v>
+        <v>361.0999124455193</v>
       </c>
       <c r="D36" t="n">
         <v>347.9376868977026</v>
@@ -3362,13 +3362,13 @@
         <v>342.6720972219126</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>13.21753151001553</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>323.662110682525</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>312.1045333535693</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3398,22 +3398,22 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>418.2912050771884</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>427.97673816528</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>396.9842838494889</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>400.0736870501537</v>
       </c>
       <c r="V36" t="n">
         <v>414.5106671915202</v>
       </c>
       <c r="W36" t="n">
-        <v>432.3731429098285</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>419.8627394453875</v>
@@ -3447,7 +3447,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>86.11672794030837</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>86.11672794030837</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3529,7 +3529,7 @@
         <v>368.2460042948564</v>
       </c>
       <c r="I38" t="n">
-        <v>0.3935447342859982</v>
+        <v>0.3935447342857401</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3587,19 +3587,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>384.5565566463266</v>
+        <v>232.9460015455853</v>
       </c>
       <c r="C39" t="n">
-        <v>276.4517849848955</v>
+        <v>361.0999124455193</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>347.9376868977026</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>342.6720972219126</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>339.6362423378769</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3608,7 +3608,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>145.6010009740521</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3635,7 +3635,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>418.2912050771884</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>427.97673816528</v>
@@ -3656,7 +3656,7 @@
         <v>419.8627394453875</v>
       </c>
       <c r="Y39" t="n">
-        <v>399.3913927661343</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3745,7 +3745,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>481.9993129555745</v>
+        <v>481.9993129555743</v>
       </c>
       <c r="C41" t="n">
         <v>449.4745782429939</v>
@@ -3766,7 +3766,7 @@
         <v>368.2460042948564</v>
       </c>
       <c r="I41" t="n">
-        <v>0.3935447342859982</v>
+        <v>0.3935447342857401</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3824,19 +3824,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>384.5565566463266</v>
+        <v>314.5371085714924</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>361.0999124455193</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>347.9376868977026</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>342.6720972219126</v>
       </c>
       <c r="F42" t="n">
-        <v>40.75882799895461</v>
+        <v>339.6362423378769</v>
       </c>
       <c r="G42" t="n">
         <v>323.662110682525</v>
@@ -3872,25 +3872,25 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>418.2912050771884</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>427.97673816528</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>396.9842838494889</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>400.0736870501537</v>
       </c>
       <c r="V42" t="n">
-        <v>414.5106671915202</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>432.3731429098285</v>
       </c>
       <c r="X42" t="n">
-        <v>419.8627394453875</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>399.3913927661343</v>
@@ -3921,7 +3921,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>86.11672794030837</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>86.11672794030837</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3982,7 +3982,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>481.9993129555745</v>
+        <v>481.9993129555743</v>
       </c>
       <c r="C44" t="n">
         <v>449.4745782429939</v>
@@ -4030,7 +4030,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>6.982233028349856</v>
+        <v>6.982233028349953</v>
       </c>
       <c r="S44" t="n">
         <v>406.371246055701</v>
@@ -4067,22 +4067,22 @@
         <v>361.0999124455193</v>
       </c>
       <c r="D45" t="n">
-        <v>347.9376868977026</v>
+        <v>290.4286422873096</v>
       </c>
       <c r="E45" t="n">
-        <v>113.0888736658791</v>
+        <v>342.6720972219126</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>339.6362423378769</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>323.662110682525</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>312.1045333535693</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>145.6010009740521</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4109,22 +4109,22 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>418.2912050771884</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>427.97673816528</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>396.9842838494889</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>400.0736870501537</v>
       </c>
       <c r="V45" t="n">
-        <v>414.5106671915202</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>432.3731429098285</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>419.8627394453875</v>
@@ -4194,16 +4194,16 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
         <v>86.11672794030837</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4312,22 +4312,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2604.922907272603</v>
+        <v>2604.922907272604</v>
       </c>
       <c r="C2" t="n">
         <v>2150.90818177463</v>
       </c>
       <c r="D2" t="n">
-        <v>1736.424186077812</v>
+        <v>1736.424186077813</v>
       </c>
       <c r="E2" t="n">
-        <v>1327.976418798147</v>
+        <v>1327.976418798148</v>
       </c>
       <c r="F2" t="n">
-        <v>918.9969958607616</v>
+        <v>918.9969958607618</v>
       </c>
       <c r="G2" t="n">
-        <v>515.0831808375173</v>
+        <v>515.0831808375174</v>
       </c>
       <c r="H2" t="n">
         <v>143.117519933622</v>
@@ -4339,22 +4339,22 @@
         <v>860.2726437330556</v>
       </c>
       <c r="K2" t="n">
-        <v>2058.933492682376</v>
+        <v>1569.979010080924</v>
       </c>
       <c r="L2" t="n">
-        <v>3572.554259232019</v>
+        <v>2477.008504650546</v>
       </c>
       <c r="M2" t="n">
-        <v>4269.550077243505</v>
+        <v>2987.857333379482</v>
       </c>
       <c r="N2" t="n">
-        <v>4882.770397018268</v>
+        <v>3820.027254906163</v>
       </c>
       <c r="O2" t="n">
-        <v>5835.812941040225</v>
+        <v>5420.718390895065</v>
       </c>
       <c r="P2" t="n">
-        <v>6697.400904947332</v>
+        <v>6282.306354802172</v>
       </c>
       <c r="Q2" t="n">
         <v>7136</v>
@@ -4366,7 +4366,7 @@
         <v>6718.471233248433</v>
       </c>
       <c r="T2" t="n">
-        <v>6143.037816527462</v>
+        <v>6143.037816527463</v>
       </c>
       <c r="U2" t="n">
         <v>5487.572482269392</v>
@@ -4391,19 +4391,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>957.4769117224993</v>
+        <v>1164.170545371823</v>
       </c>
       <c r="C3" t="n">
-        <v>592.729525413894</v>
+        <v>1164.170545371823</v>
       </c>
       <c r="D3" t="n">
-        <v>488.8534315372855</v>
+        <v>812.7183363842444</v>
       </c>
       <c r="E3" t="n">
-        <v>142.72</v>
+        <v>812.7183363842444</v>
       </c>
       <c r="F3" t="n">
-        <v>142.72</v>
+        <v>469.6514249318435</v>
       </c>
       <c r="G3" t="n">
         <v>142.72</v>
@@ -4460,7 +4460,7 @@
         <v>1360.902560981221</v>
       </c>
       <c r="Y3" t="n">
-        <v>957.4769117224993</v>
+        <v>1164.170545371823</v>
       </c>
     </row>
     <row r="4">
@@ -4476,28 +4476,28 @@
         <v>254.1293006790323</v>
       </c>
       <c r="D4" t="n">
-        <v>367.4484448040324</v>
+        <v>254.1293006790323</v>
       </c>
       <c r="E4" t="n">
-        <v>485.2773490154454</v>
+        <v>254.1293006790323</v>
       </c>
       <c r="F4" t="n">
-        <v>565.9312944848501</v>
+        <v>378.4902732709677</v>
       </c>
       <c r="G4" t="n">
-        <v>565.9312944848501</v>
+        <v>378.4902732709677</v>
       </c>
       <c r="H4" t="n">
-        <v>565.9312944848501</v>
+        <v>563.3368044835557</v>
       </c>
       <c r="I4" t="n">
-        <v>565.9312944848501</v>
+        <v>563.3368044835557</v>
       </c>
       <c r="J4" t="n">
-        <v>652.9178883639495</v>
+        <v>650.3233983626551</v>
       </c>
       <c r="K4" t="n">
-        <v>652.9178883639495</v>
+        <v>650.3233983626551</v>
       </c>
       <c r="L4" t="n">
         <v>652.9178883639495</v>
@@ -4552,22 +4552,22 @@
         <v>2604.922907272605</v>
       </c>
       <c r="C5" t="n">
-        <v>2150.908181774632</v>
+        <v>2150.908181774631</v>
       </c>
       <c r="D5" t="n">
-        <v>1736.424186077814</v>
+        <v>1736.424186077813</v>
       </c>
       <c r="E5" t="n">
-        <v>1327.976418798149</v>
+        <v>1327.976418798148</v>
       </c>
       <c r="F5" t="n">
-        <v>918.9969958607638</v>
+        <v>918.9969958607618</v>
       </c>
       <c r="G5" t="n">
-        <v>515.0831808375187</v>
+        <v>515.0831808375174</v>
       </c>
       <c r="H5" t="n">
-        <v>143.117519933623</v>
+        <v>143.117519933622</v>
       </c>
       <c r="I5" t="n">
         <v>142.72</v>
@@ -4576,49 +4576,49 @@
         <v>860.2726437330556</v>
       </c>
       <c r="K5" t="n">
-        <v>2058.933492682376</v>
+        <v>1569.979010080924</v>
       </c>
       <c r="L5" t="n">
-        <v>3572.554259232019</v>
+        <v>2668.657030666279</v>
       </c>
       <c r="M5" t="n">
-        <v>4155.396082932127</v>
+        <v>3854.455527098345</v>
       </c>
       <c r="N5" t="n">
-        <v>4768.61640270689</v>
+        <v>4467.675846873108</v>
       </c>
       <c r="O5" t="n">
-        <v>5721.658946728846</v>
+        <v>5420.718390895065</v>
       </c>
       <c r="P5" t="n">
-        <v>7136</v>
+        <v>6282.306354802172</v>
       </c>
       <c r="Q5" t="n">
         <v>7136</v>
       </c>
       <c r="R5" t="n">
-        <v>7128.947239365305</v>
+        <v>7128.947239365304</v>
       </c>
       <c r="S5" t="n">
-        <v>6718.471233248435</v>
+        <v>6718.471233248434</v>
       </c>
       <c r="T5" t="n">
-        <v>6143.037816527465</v>
+        <v>6143.037816527464</v>
       </c>
       <c r="U5" t="n">
-        <v>5487.572482269394</v>
+        <v>5487.572482269393</v>
       </c>
       <c r="V5" t="n">
-        <v>4851.359326545329</v>
+        <v>4851.359326545328</v>
       </c>
       <c r="W5" t="n">
-        <v>4206.537633635281</v>
+        <v>4206.53763363528</v>
       </c>
       <c r="X5" t="n">
-        <v>3608.273155392182</v>
+        <v>3608.273155392181</v>
       </c>
       <c r="Y5" t="n">
-        <v>3091.790900157024</v>
+        <v>3091.790900157023</v>
       </c>
     </row>
     <row r="6">
@@ -4628,13 +4628,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>569.0359454130785</v>
+        <v>1548.11993828587</v>
       </c>
       <c r="C6" t="n">
-        <v>485.7869114524009</v>
+        <v>1183.372551977265</v>
       </c>
       <c r="D6" t="n">
-        <v>485.7869114524009</v>
+        <v>831.9203429896863</v>
       </c>
       <c r="E6" t="n">
         <v>485.7869114524009</v>
@@ -4685,19 +4685,19 @@
         <v>3044.559365624544</v>
       </c>
       <c r="U6" t="n">
-        <v>2640.444530220348</v>
+        <v>2811.447715012332</v>
       </c>
       <c r="V6" t="n">
-        <v>2221.74688659255</v>
+        <v>2796.790475424938</v>
       </c>
       <c r="W6" t="n">
-        <v>1785.006338198784</v>
+        <v>2764.090331071576</v>
       </c>
       <c r="X6" t="n">
-        <v>1360.902560981221</v>
+        <v>2339.986553854013</v>
       </c>
       <c r="Y6" t="n">
-        <v>957.4769117224993</v>
+        <v>1936.560904595291</v>
       </c>
     </row>
     <row r="7">
@@ -4707,31 +4707,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>142.72</v>
+        <v>565.9312944848501</v>
       </c>
       <c r="C7" t="n">
-        <v>142.72</v>
+        <v>565.9312944848501</v>
       </c>
       <c r="D7" t="n">
-        <v>142.72</v>
+        <v>565.9312944848501</v>
       </c>
       <c r="E7" t="n">
-        <v>142.72</v>
+        <v>565.9312944848501</v>
       </c>
       <c r="F7" t="n">
-        <v>142.72</v>
+        <v>565.9312944848501</v>
       </c>
       <c r="G7" t="n">
-        <v>142.72</v>
+        <v>565.9312944848501</v>
       </c>
       <c r="H7" t="n">
-        <v>255.2430256197882</v>
+        <v>565.9312944848501</v>
       </c>
       <c r="I7" t="n">
-        <v>255.2430256197882</v>
+        <v>565.9312944848501</v>
       </c>
       <c r="J7" t="n">
-        <v>342.2296194988875</v>
+        <v>652.9178883639495</v>
       </c>
       <c r="K7" t="n">
         <v>652.9178883639495</v>
@@ -4758,25 +4758,25 @@
         <v>142.72</v>
       </c>
       <c r="S7" t="n">
-        <v>142.72</v>
+        <v>210.0188303334021</v>
       </c>
       <c r="T7" t="n">
-        <v>142.72</v>
+        <v>405.461661480959</v>
       </c>
       <c r="U7" t="n">
-        <v>142.72</v>
+        <v>565.9312944848501</v>
       </c>
       <c r="V7" t="n">
-        <v>142.72</v>
+        <v>565.9312944848501</v>
       </c>
       <c r="W7" t="n">
-        <v>142.72</v>
+        <v>565.9312944848501</v>
       </c>
       <c r="X7" t="n">
-        <v>142.72</v>
+        <v>565.9312944848501</v>
       </c>
       <c r="Y7" t="n">
-        <v>142.72</v>
+        <v>565.9312944848501</v>
       </c>
     </row>
     <row r="8">
@@ -4798,10 +4798,10 @@
         <v>1327.976418798147</v>
       </c>
       <c r="F8" t="n">
-        <v>918.996995860762</v>
+        <v>918.9969958607616</v>
       </c>
       <c r="G8" t="n">
-        <v>515.0831808375174</v>
+        <v>515.0831808375173</v>
       </c>
       <c r="H8" t="n">
         <v>143.117519933622</v>
@@ -4810,22 +4810,22 @@
         <v>142.72</v>
       </c>
       <c r="J8" t="n">
-        <v>534.0291130376557</v>
+        <v>860.2726437330556</v>
       </c>
       <c r="K8" t="n">
-        <v>1243.735479385524</v>
+        <v>2058.933492682376</v>
       </c>
       <c r="L8" t="n">
-        <v>2150.764973955147</v>
+        <v>3519.323603311797</v>
       </c>
       <c r="M8" t="n">
-        <v>2661.613802684082</v>
+        <v>4030.172432040732</v>
       </c>
       <c r="N8" t="n">
-        <v>3274.834122458845</v>
+        <v>5329.263810780216</v>
       </c>
       <c r="O8" t="n">
-        <v>4867.965301531017</v>
+        <v>6282.306354802172</v>
       </c>
       <c r="P8" t="n">
         <v>6282.306354802172</v>
@@ -4840,7 +4840,7 @@
         <v>6718.471233248433</v>
       </c>
       <c r="T8" t="n">
-        <v>6143.037816527463</v>
+        <v>6143.037816527462</v>
       </c>
       <c r="U8" t="n">
         <v>5487.572482269392</v>
@@ -4865,25 +4865,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1875.051363217714</v>
+        <v>569.0359454130785</v>
       </c>
       <c r="C9" t="n">
-        <v>1510.303976909108</v>
+        <v>569.0359454130785</v>
       </c>
       <c r="D9" t="n">
-        <v>1158.85176792153</v>
+        <v>569.0359454130785</v>
       </c>
       <c r="E9" t="n">
-        <v>812.7183363842444</v>
+        <v>569.0359454130785</v>
       </c>
       <c r="F9" t="n">
-        <v>469.6514249318435</v>
+        <v>569.0359454130785</v>
       </c>
       <c r="G9" t="n">
-        <v>142.72</v>
+        <v>289.7917181556082</v>
       </c>
       <c r="H9" t="n">
-        <v>142.72</v>
+        <v>289.7917181556082</v>
       </c>
       <c r="I9" t="n">
         <v>142.72</v>
@@ -4922,19 +4922,19 @@
         <v>3044.559365624544</v>
       </c>
       <c r="U9" t="n">
-        <v>2734.338735903772</v>
+        <v>2640.444530220348</v>
       </c>
       <c r="V9" t="n">
-        <v>2719.681496316377</v>
+        <v>2221.74688659255</v>
       </c>
       <c r="W9" t="n">
-        <v>2686.981351963015</v>
+        <v>1785.006338198784</v>
       </c>
       <c r="X9" t="n">
-        <v>2666.917978785856</v>
+        <v>1360.902560981221</v>
       </c>
       <c r="Y9" t="n">
-        <v>2263.492329527135</v>
+        <v>957.4769117224993</v>
       </c>
     </row>
     <row r="10">
@@ -4944,37 +4944,37 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>142.72</v>
+        <v>465.6417092838709</v>
       </c>
       <c r="C10" t="n">
-        <v>142.72</v>
+        <v>465.6417092838709</v>
       </c>
       <c r="D10" t="n">
-        <v>142.72</v>
+        <v>465.6417092838709</v>
       </c>
       <c r="E10" t="n">
-        <v>142.72</v>
+        <v>465.6417092838709</v>
       </c>
       <c r="F10" t="n">
-        <v>142.72</v>
+        <v>465.6417092838709</v>
       </c>
       <c r="G10" t="n">
-        <v>142.72</v>
+        <v>465.6417092838709</v>
       </c>
       <c r="H10" t="n">
-        <v>142.72</v>
+        <v>465.6417092838709</v>
       </c>
       <c r="I10" t="n">
-        <v>415.7050891037248</v>
+        <v>465.6417092838709</v>
       </c>
       <c r="J10" t="n">
-        <v>652.9178883639495</v>
+        <v>552.6283031629703</v>
       </c>
       <c r="K10" t="n">
-        <v>652.9178883639495</v>
+        <v>552.6283031629703</v>
       </c>
       <c r="L10" t="n">
-        <v>652.9178883639495</v>
+        <v>552.6283031629703</v>
       </c>
       <c r="M10" t="n">
         <v>652.9178883639495</v>
@@ -5007,13 +5007,13 @@
         <v>142.72</v>
       </c>
       <c r="W10" t="n">
-        <v>142.72</v>
+        <v>314.6109182596774</v>
       </c>
       <c r="X10" t="n">
-        <v>142.72</v>
+        <v>465.6417092838709</v>
       </c>
       <c r="Y10" t="n">
-        <v>142.72</v>
+        <v>465.6417092838709</v>
       </c>
     </row>
     <row r="11">
@@ -5047,25 +5047,25 @@
         <v>142.72</v>
       </c>
       <c r="J11" t="n">
-        <v>534.0291130376557</v>
+        <v>860.2726437330556</v>
       </c>
       <c r="K11" t="n">
-        <v>1732.689961986976</v>
+        <v>1569.979010080924</v>
       </c>
       <c r="L11" t="n">
-        <v>3246.310728536619</v>
+        <v>2657.735639404691</v>
       </c>
       <c r="M11" t="n">
-        <v>3757.159557265554</v>
+        <v>3168.584468133626</v>
       </c>
       <c r="N11" t="n">
-        <v>4882.77039701827</v>
+        <v>4467.67584687311</v>
       </c>
       <c r="O11" t="n">
-        <v>5835.812941040226</v>
+        <v>5420.718390895066</v>
       </c>
       <c r="P11" t="n">
-        <v>6697.400904947333</v>
+        <v>6282.306354802173</v>
       </c>
       <c r="Q11" t="n">
         <v>7136</v>
@@ -5102,16 +5102,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1392.54654028851</v>
+        <v>1548.11993828587</v>
       </c>
       <c r="C12" t="n">
-        <v>1027.799153979905</v>
+        <v>1183.372551977265</v>
       </c>
       <c r="D12" t="n">
-        <v>676.3469449923261</v>
+        <v>831.9203429896863</v>
       </c>
       <c r="E12" t="n">
-        <v>330.2135134550406</v>
+        <v>485.7869114524009</v>
       </c>
       <c r="F12" t="n">
         <v>142.72</v>
@@ -5150,28 +5150,28 @@
         <v>4300.369696020461</v>
       </c>
       <c r="R12" t="n">
-        <v>4300.369696020461</v>
+        <v>3877.853327255624</v>
       </c>
       <c r="S12" t="n">
-        <v>3868.069960499976</v>
+        <v>3877.853327255624</v>
       </c>
       <c r="T12" t="n">
-        <v>3868.069960499976</v>
+        <v>3476.859101145029</v>
       </c>
       <c r="U12" t="n">
-        <v>3463.95512509578</v>
+        <v>3072.744265740833</v>
       </c>
       <c r="V12" t="n">
-        <v>3045.257481467982</v>
+        <v>2654.046622113035</v>
       </c>
       <c r="W12" t="n">
-        <v>2608.516933074216</v>
+        <v>2217.306073719269</v>
       </c>
       <c r="X12" t="n">
-        <v>2184.413155856652</v>
+        <v>1793.202296501705</v>
       </c>
       <c r="Y12" t="n">
-        <v>1780.987506597931</v>
+        <v>1548.11993828587</v>
       </c>
     </row>
     <row r="13">
@@ -5181,22 +5181,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="C13" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="D13" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="E13" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="F13" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="G13" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="H13" t="n">
         <v>142.72</v>
@@ -5205,52 +5205,52 @@
         <v>142.72</v>
       </c>
       <c r="J13" t="n">
-        <v>229.7065938790994</v>
+        <v>229.7065938790993</v>
       </c>
       <c r="K13" t="n">
-        <v>229.7065938790994</v>
+        <v>229.7065938790993</v>
       </c>
       <c r="L13" t="n">
-        <v>229.7065938790994</v>
+        <v>229.7065938790993</v>
       </c>
       <c r="M13" t="n">
-        <v>229.7065938790994</v>
+        <v>229.7065938790993</v>
       </c>
       <c r="N13" t="n">
-        <v>229.7065938790994</v>
+        <v>229.7065938790993</v>
       </c>
       <c r="O13" t="n">
-        <v>229.7065938790994</v>
+        <v>229.7065938790993</v>
       </c>
       <c r="P13" t="n">
-        <v>229.7065938790994</v>
+        <v>229.7065938790993</v>
       </c>
       <c r="Q13" t="n">
-        <v>229.7065938790994</v>
+        <v>229.7065938790993</v>
       </c>
       <c r="R13" t="n">
-        <v>229.7065938790994</v>
+        <v>229.7065938790993</v>
       </c>
       <c r="S13" t="n">
-        <v>229.7065938790994</v>
+        <v>229.7065938790993</v>
       </c>
       <c r="T13" t="n">
-        <v>229.7065938790994</v>
+        <v>229.7065938790993</v>
       </c>
       <c r="U13" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="V13" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="W13" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="X13" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="Y13" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
     </row>
     <row r="14">
@@ -5263,19 +5263,19 @@
         <v>2604.922907272605</v>
       </c>
       <c r="C14" t="n">
-        <v>2150.908181774632</v>
+        <v>2150.908181774631</v>
       </c>
       <c r="D14" t="n">
-        <v>1736.424186077814</v>
+        <v>1736.424186077813</v>
       </c>
       <c r="E14" t="n">
-        <v>1327.976418798149</v>
+        <v>1327.976418798148</v>
       </c>
       <c r="F14" t="n">
-        <v>918.9969958607638</v>
+        <v>918.9969958607618</v>
       </c>
       <c r="G14" t="n">
-        <v>515.0831808375187</v>
+        <v>515.0831808375174</v>
       </c>
       <c r="H14" t="n">
         <v>143.117519933622</v>
@@ -5284,52 +5284,52 @@
         <v>142.72</v>
       </c>
       <c r="J14" t="n">
-        <v>534.0291130376557</v>
+        <v>860.2726437330556</v>
       </c>
       <c r="K14" t="n">
-        <v>1243.735479385524</v>
+        <v>1753.808425391925</v>
       </c>
       <c r="L14" t="n">
-        <v>2150.764973955147</v>
+        <v>3267.429191941568</v>
       </c>
       <c r="M14" t="n">
-        <v>2661.613802684082</v>
+        <v>3778.278020670503</v>
       </c>
       <c r="N14" t="n">
-        <v>3960.705181423565</v>
+        <v>5077.369399409987</v>
       </c>
       <c r="O14" t="n">
-        <v>5283.059851676178</v>
+        <v>6030.411943431944</v>
       </c>
       <c r="P14" t="n">
-        <v>6697.400904947333</v>
+        <v>6891.999907339051</v>
       </c>
       <c r="Q14" t="n">
         <v>7136</v>
       </c>
       <c r="R14" t="n">
-        <v>7128.947239365305</v>
+        <v>7128.947239365304</v>
       </c>
       <c r="S14" t="n">
-        <v>6718.471233248435</v>
+        <v>6718.471233248434</v>
       </c>
       <c r="T14" t="n">
-        <v>6143.037816527465</v>
+        <v>6143.037816527464</v>
       </c>
       <c r="U14" t="n">
-        <v>5487.572482269394</v>
+        <v>5487.572482269393</v>
       </c>
       <c r="V14" t="n">
-        <v>4851.359326545329</v>
+        <v>4851.359326545328</v>
       </c>
       <c r="W14" t="n">
-        <v>4206.537633635281</v>
+        <v>4206.53763363528</v>
       </c>
       <c r="X14" t="n">
-        <v>3608.273155392182</v>
+        <v>3608.273155392181</v>
       </c>
       <c r="Y14" t="n">
-        <v>3091.790900157024</v>
+        <v>3091.790900157023</v>
       </c>
     </row>
     <row r="15">
@@ -5339,19 +5339,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1158.85176792153</v>
+        <v>1205.053026833469</v>
       </c>
       <c r="C15" t="n">
-        <v>1158.85176792153</v>
+        <v>840.305640524864</v>
       </c>
       <c r="D15" t="n">
-        <v>1158.85176792153</v>
+        <v>488.8534315372855</v>
       </c>
       <c r="E15" t="n">
-        <v>812.7183363842444</v>
+        <v>142.72</v>
       </c>
       <c r="F15" t="n">
-        <v>469.6514249318435</v>
+        <v>142.72</v>
       </c>
       <c r="G15" t="n">
         <v>142.72</v>
@@ -5390,25 +5390,25 @@
         <v>3877.853327255624</v>
       </c>
       <c r="S15" t="n">
-        <v>3445.553591735139</v>
+        <v>3680.576447044935</v>
       </c>
       <c r="T15" t="n">
-        <v>3044.559365624544</v>
+        <v>3680.576447044935</v>
       </c>
       <c r="U15" t="n">
-        <v>2640.444530220348</v>
+        <v>3276.46161164074</v>
       </c>
       <c r="V15" t="n">
-        <v>2221.74688659255</v>
+        <v>2857.763968012941</v>
       </c>
       <c r="W15" t="n">
-        <v>1785.006338198784</v>
+        <v>2421.023419619175</v>
       </c>
       <c r="X15" t="n">
-        <v>1547.292734230951</v>
+        <v>1996.919642401612</v>
       </c>
       <c r="Y15" t="n">
-        <v>1547.292734230951</v>
+        <v>1593.49399314289</v>
       </c>
     </row>
     <row r="16">
@@ -5418,22 +5418,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>142.72</v>
+        <v>229.7065938790994</v>
       </c>
       <c r="C16" t="n">
-        <v>142.72</v>
+        <v>229.7065938790994</v>
       </c>
       <c r="D16" t="n">
-        <v>142.72</v>
+        <v>229.7065938790994</v>
       </c>
       <c r="E16" t="n">
-        <v>142.72</v>
+        <v>229.7065938790994</v>
       </c>
       <c r="F16" t="n">
-        <v>142.72</v>
+        <v>229.7065938790994</v>
       </c>
       <c r="G16" t="n">
-        <v>142.72</v>
+        <v>229.7065938790994</v>
       </c>
       <c r="H16" t="n">
         <v>142.72</v>
@@ -5475,19 +5475,19 @@
         <v>229.7065938790994</v>
       </c>
       <c r="U16" t="n">
-        <v>142.72</v>
+        <v>229.7065938790994</v>
       </c>
       <c r="V16" t="n">
-        <v>142.72</v>
+        <v>229.7065938790994</v>
       </c>
       <c r="W16" t="n">
-        <v>142.72</v>
+        <v>229.7065938790994</v>
       </c>
       <c r="X16" t="n">
-        <v>142.72</v>
+        <v>229.7065938790994</v>
       </c>
       <c r="Y16" t="n">
-        <v>142.72</v>
+        <v>229.7065938790994</v>
       </c>
     </row>
     <row r="17">
@@ -5500,19 +5500,19 @@
         <v>2604.922907272605</v>
       </c>
       <c r="C17" t="n">
-        <v>2150.908181774631</v>
+        <v>2150.908181774632</v>
       </c>
       <c r="D17" t="n">
-        <v>1736.424186077813</v>
+        <v>1736.424186077814</v>
       </c>
       <c r="E17" t="n">
-        <v>1327.976418798148</v>
+        <v>1327.976418798149</v>
       </c>
       <c r="F17" t="n">
-        <v>918.9969958607618</v>
+        <v>918.9969958607638</v>
       </c>
       <c r="G17" t="n">
-        <v>515.0831808375174</v>
+        <v>515.0831808375187</v>
       </c>
       <c r="H17" t="n">
         <v>143.117519933622</v>
@@ -5521,16 +5521,16 @@
         <v>142.72</v>
       </c>
       <c r="J17" t="n">
-        <v>534.0291130376557</v>
+        <v>860.2726437330556</v>
       </c>
       <c r="K17" t="n">
-        <v>1732.689961986976</v>
+        <v>1569.979010080924</v>
       </c>
       <c r="L17" t="n">
-        <v>3246.310728536619</v>
+        <v>3083.599776630567</v>
       </c>
       <c r="M17" t="n">
-        <v>3854.455527098346</v>
+        <v>3594.448605359502</v>
       </c>
       <c r="N17" t="n">
         <v>4467.67584687311</v>
@@ -5545,28 +5545,28 @@
         <v>7136</v>
       </c>
       <c r="R17" t="n">
-        <v>7128.947239365304</v>
+        <v>7128.947239365305</v>
       </c>
       <c r="S17" t="n">
-        <v>6718.471233248434</v>
+        <v>6718.471233248435</v>
       </c>
       <c r="T17" t="n">
-        <v>6143.037816527464</v>
+        <v>6143.037816527465</v>
       </c>
       <c r="U17" t="n">
-        <v>5487.572482269393</v>
+        <v>5487.572482269394</v>
       </c>
       <c r="V17" t="n">
-        <v>4851.359326545328</v>
+        <v>4851.359326545329</v>
       </c>
       <c r="W17" t="n">
-        <v>4206.53763363528</v>
+        <v>4206.537633635281</v>
       </c>
       <c r="X17" t="n">
-        <v>3608.273155392181</v>
+        <v>3608.273155392182</v>
       </c>
       <c r="Y17" t="n">
-        <v>3091.790900157023</v>
+        <v>3091.790900157024</v>
       </c>
     </row>
     <row r="18">
@@ -5576,16 +5576,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1392.54654028851</v>
+        <v>1548.11993828587</v>
       </c>
       <c r="C18" t="n">
-        <v>1027.799153979905</v>
+        <v>1183.372551977265</v>
       </c>
       <c r="D18" t="n">
-        <v>676.3469449923261</v>
+        <v>831.9203429896864</v>
       </c>
       <c r="E18" t="n">
-        <v>330.2135134550406</v>
+        <v>485.7869114524009</v>
       </c>
       <c r="F18" t="n">
         <v>142.72</v>
@@ -5630,22 +5630,22 @@
         <v>3868.069960499976</v>
       </c>
       <c r="T18" t="n">
-        <v>3868.069960499976</v>
+        <v>3467.075734389381</v>
       </c>
       <c r="U18" t="n">
-        <v>3463.95512509578</v>
+        <v>3062.960898985185</v>
       </c>
       <c r="V18" t="n">
-        <v>3045.257481467982</v>
+        <v>2644.263255357387</v>
       </c>
       <c r="W18" t="n">
-        <v>2608.516933074216</v>
+        <v>2207.522706963621</v>
       </c>
       <c r="X18" t="n">
-        <v>2184.413155856652</v>
+        <v>1783.418929746058</v>
       </c>
       <c r="Y18" t="n">
-        <v>1780.987506597931</v>
+        <v>1783.418929746058</v>
       </c>
     </row>
     <row r="19">
@@ -5667,10 +5667,10 @@
         <v>229.7065938790994</v>
       </c>
       <c r="F19" t="n">
-        <v>142.72</v>
+        <v>229.7065938790994</v>
       </c>
       <c r="G19" t="n">
-        <v>142.72</v>
+        <v>229.7065938790994</v>
       </c>
       <c r="H19" t="n">
         <v>142.72</v>
@@ -5746,31 +5746,31 @@
         <v>1327.976418798148</v>
       </c>
       <c r="F20" t="n">
-        <v>918.9969958607618</v>
+        <v>918.996995860762</v>
       </c>
       <c r="G20" t="n">
-        <v>515.0831808375174</v>
+        <v>515.0831808375176</v>
       </c>
       <c r="H20" t="n">
-        <v>143.117519933622</v>
+        <v>143.1175199336222</v>
       </c>
       <c r="I20" t="n">
         <v>142.72</v>
       </c>
       <c r="J20" t="n">
-        <v>534.0291130376557</v>
+        <v>860.2726437330556</v>
       </c>
       <c r="K20" t="n">
-        <v>1732.689961986976</v>
+        <v>1597.431889997983</v>
       </c>
       <c r="L20" t="n">
-        <v>3246.310728536619</v>
+        <v>3111.052656547626</v>
       </c>
       <c r="M20" t="n">
-        <v>4269.550077243507</v>
+        <v>3621.901485276561</v>
       </c>
       <c r="N20" t="n">
-        <v>4882.77039701827</v>
+        <v>4235.121805051324</v>
       </c>
       <c r="O20" t="n">
         <v>5835.812941040226</v>
@@ -5813,22 +5813,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>973.1507808172739</v>
+        <v>1423.8520496984</v>
       </c>
       <c r="C21" t="n">
-        <v>784.9085293293883</v>
+        <v>1059.104663389794</v>
       </c>
       <c r="D21" t="n">
-        <v>784.9085293293883</v>
+        <v>707.6524544022161</v>
       </c>
       <c r="E21" t="n">
-        <v>784.9085293293883</v>
+        <v>361.5190228649306</v>
       </c>
       <c r="F21" t="n">
-        <v>784.9085293293883</v>
+        <v>142.72</v>
       </c>
       <c r="G21" t="n">
-        <v>457.9771043975448</v>
+        <v>142.72</v>
       </c>
       <c r="H21" t="n">
         <v>142.72</v>
@@ -5861,28 +5861,28 @@
         <v>4300.369696020461</v>
       </c>
       <c r="R21" t="n">
-        <v>3877.853327255624</v>
+        <v>4300.369696020461</v>
       </c>
       <c r="S21" t="n">
-        <v>3445.553591735139</v>
+        <v>4300.369696020461</v>
       </c>
       <c r="T21" t="n">
-        <v>3044.559365624544</v>
+        <v>3899.375469909866</v>
       </c>
       <c r="U21" t="n">
-        <v>3044.559365624544</v>
+        <v>3495.26063450567</v>
       </c>
       <c r="V21" t="n">
-        <v>2625.861721996746</v>
+        <v>3076.562990877872</v>
       </c>
       <c r="W21" t="n">
-        <v>2189.12117360298</v>
+        <v>2639.822442484106</v>
       </c>
       <c r="X21" t="n">
-        <v>1765.017396385416</v>
+        <v>2215.718665266542</v>
       </c>
       <c r="Y21" t="n">
-        <v>1361.591747126695</v>
+        <v>1812.293016007821</v>
       </c>
     </row>
     <row r="22">
@@ -5892,22 +5892,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="C22" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="D22" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="E22" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="F22" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="G22" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="H22" t="n">
         <v>142.72</v>
@@ -5952,16 +5952,16 @@
         <v>229.7065938790994</v>
       </c>
       <c r="V22" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="W22" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="X22" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="Y22" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
     </row>
     <row r="23">
@@ -5971,22 +5971,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2604.922907272603</v>
+        <v>2604.922907272605</v>
       </c>
       <c r="C23" t="n">
-        <v>2150.90818177463</v>
+        <v>2150.908181774632</v>
       </c>
       <c r="D23" t="n">
-        <v>1736.424186077812</v>
+        <v>1736.424186077814</v>
       </c>
       <c r="E23" t="n">
-        <v>1327.976418798147</v>
+        <v>1327.976418798149</v>
       </c>
       <c r="F23" t="n">
-        <v>918.996995860762</v>
+        <v>918.9969958607638</v>
       </c>
       <c r="G23" t="n">
-        <v>515.0831808375174</v>
+        <v>515.0831808375187</v>
       </c>
       <c r="H23" t="n">
         <v>143.117519933622</v>
@@ -5995,52 +5995,52 @@
         <v>142.72</v>
       </c>
       <c r="J23" t="n">
-        <v>860.2726437330556</v>
+        <v>434.2709545127605</v>
       </c>
       <c r="K23" t="n">
-        <v>2058.933492682376</v>
+        <v>1143.977320860629</v>
       </c>
       <c r="L23" t="n">
-        <v>3572.554259232019</v>
+        <v>2657.598087410272</v>
       </c>
       <c r="M23" t="n">
-        <v>4269.550077243505</v>
+        <v>3206.806935131401</v>
       </c>
       <c r="N23" t="n">
-        <v>4882.770397018268</v>
+        <v>3820.027254906164</v>
       </c>
       <c r="O23" t="n">
-        <v>5835.812941040225</v>
+        <v>5420.718390895066</v>
       </c>
       <c r="P23" t="n">
-        <v>6697.400904947332</v>
+        <v>6282.306354802173</v>
       </c>
       <c r="Q23" t="n">
         <v>7136</v>
       </c>
       <c r="R23" t="n">
-        <v>7128.947239365303</v>
+        <v>7128.947239365305</v>
       </c>
       <c r="S23" t="n">
-        <v>6718.471233248433</v>
+        <v>6718.471233248435</v>
       </c>
       <c r="T23" t="n">
-        <v>6143.037816527463</v>
+        <v>6143.037816527465</v>
       </c>
       <c r="U23" t="n">
-        <v>5487.572482269392</v>
+        <v>5487.572482269394</v>
       </c>
       <c r="V23" t="n">
-        <v>4851.359326545327</v>
+        <v>4851.359326545329</v>
       </c>
       <c r="W23" t="n">
-        <v>4206.537633635279</v>
+        <v>4206.537633635281</v>
       </c>
       <c r="X23" t="n">
-        <v>3608.27315539218</v>
+        <v>3608.273155392182</v>
       </c>
       <c r="Y23" t="n">
-        <v>3091.790900157022</v>
+        <v>3091.790900157024</v>
       </c>
     </row>
     <row r="24">
@@ -6050,22 +6050,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>973.1507808172739</v>
+        <v>1548.11993828587</v>
       </c>
       <c r="C24" t="n">
-        <v>784.9085293293882</v>
+        <v>1183.372551977265</v>
       </c>
       <c r="D24" t="n">
-        <v>784.9085293293882</v>
+        <v>831.9203429896864</v>
       </c>
       <c r="E24" t="n">
-        <v>784.9085293293882</v>
+        <v>485.7869114524009</v>
       </c>
       <c r="F24" t="n">
-        <v>784.9085293293882</v>
+        <v>142.72</v>
       </c>
       <c r="G24" t="n">
-        <v>457.9771043975447</v>
+        <v>142.72</v>
       </c>
       <c r="H24" t="n">
         <v>142.72</v>
@@ -6098,28 +6098,28 @@
         <v>4300.369696020461</v>
       </c>
       <c r="R24" t="n">
-        <v>3877.853327255624</v>
+        <v>4300.369696020461</v>
       </c>
       <c r="S24" t="n">
-        <v>3445.553591735139</v>
+        <v>3868.069960499976</v>
       </c>
       <c r="T24" t="n">
-        <v>3044.559365624544</v>
+        <v>3467.075734389381</v>
       </c>
       <c r="U24" t="n">
-        <v>3044.559365624544</v>
+        <v>3062.960898985185</v>
       </c>
       <c r="V24" t="n">
-        <v>2625.861721996746</v>
+        <v>2644.263255357387</v>
       </c>
       <c r="W24" t="n">
-        <v>2189.12117360298</v>
+        <v>2207.522706963621</v>
       </c>
       <c r="X24" t="n">
-        <v>1765.017396385416</v>
+        <v>1783.418929746058</v>
       </c>
       <c r="Y24" t="n">
-        <v>1361.591747126695</v>
+        <v>1783.418929746058</v>
       </c>
     </row>
     <row r="25">
@@ -6129,22 +6129,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>229.7065938790993</v>
+        <v>229.7065938790994</v>
       </c>
       <c r="C25" t="n">
-        <v>229.7065938790993</v>
+        <v>229.7065938790994</v>
       </c>
       <c r="D25" t="n">
-        <v>229.7065938790993</v>
+        <v>229.7065938790994</v>
       </c>
       <c r="E25" t="n">
-        <v>229.7065938790993</v>
+        <v>229.7065938790994</v>
       </c>
       <c r="F25" t="n">
-        <v>229.7065938790993</v>
+        <v>229.7065938790994</v>
       </c>
       <c r="G25" t="n">
-        <v>229.7065938790993</v>
+        <v>229.7065938790994</v>
       </c>
       <c r="H25" t="n">
         <v>142.72</v>
@@ -6153,52 +6153,52 @@
         <v>142.72</v>
       </c>
       <c r="J25" t="n">
-        <v>229.7065938790993</v>
+        <v>229.7065938790994</v>
       </c>
       <c r="K25" t="n">
-        <v>229.7065938790993</v>
+        <v>229.7065938790994</v>
       </c>
       <c r="L25" t="n">
-        <v>229.7065938790993</v>
+        <v>229.7065938790994</v>
       </c>
       <c r="M25" t="n">
-        <v>229.7065938790993</v>
+        <v>229.7065938790994</v>
       </c>
       <c r="N25" t="n">
-        <v>229.7065938790993</v>
+        <v>229.7065938790994</v>
       </c>
       <c r="O25" t="n">
-        <v>229.7065938790993</v>
+        <v>229.7065938790994</v>
       </c>
       <c r="P25" t="n">
-        <v>229.7065938790993</v>
+        <v>229.7065938790994</v>
       </c>
       <c r="Q25" t="n">
-        <v>229.7065938790993</v>
+        <v>229.7065938790994</v>
       </c>
       <c r="R25" t="n">
-        <v>229.7065938790993</v>
+        <v>229.7065938790994</v>
       </c>
       <c r="S25" t="n">
-        <v>229.7065938790993</v>
+        <v>229.7065938790994</v>
       </c>
       <c r="T25" t="n">
-        <v>229.7065938790993</v>
+        <v>229.7065938790994</v>
       </c>
       <c r="U25" t="n">
-        <v>229.7065938790993</v>
+        <v>229.7065938790994</v>
       </c>
       <c r="V25" t="n">
-        <v>229.7065938790993</v>
+        <v>229.7065938790994</v>
       </c>
       <c r="W25" t="n">
-        <v>229.7065938790993</v>
+        <v>229.7065938790994</v>
       </c>
       <c r="X25" t="n">
-        <v>229.7065938790993</v>
+        <v>229.7065938790994</v>
       </c>
       <c r="Y25" t="n">
-        <v>229.7065938790993</v>
+        <v>229.7065938790994</v>
       </c>
     </row>
     <row r="26">
@@ -6208,22 +6208,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2604.922907272605</v>
+        <v>2604.922907272604</v>
       </c>
       <c r="C26" t="n">
-        <v>2150.908181774632</v>
+        <v>2150.90818177463</v>
       </c>
       <c r="D26" t="n">
-        <v>1736.424186077814</v>
+        <v>1736.424186077812</v>
       </c>
       <c r="E26" t="n">
-        <v>1327.976418798149</v>
+        <v>1327.976418798147</v>
       </c>
       <c r="F26" t="n">
-        <v>918.9969958607638</v>
+        <v>918.9969958607611</v>
       </c>
       <c r="G26" t="n">
-        <v>515.0831808375187</v>
+        <v>515.0831808375167</v>
       </c>
       <c r="H26" t="n">
         <v>143.117519933622</v>
@@ -6232,52 +6232,52 @@
         <v>142.72</v>
       </c>
       <c r="J26" t="n">
-        <v>142.72</v>
+        <v>434.2709545127605</v>
       </c>
       <c r="K26" t="n">
-        <v>852.4263663478685</v>
+        <v>1632.931803462081</v>
       </c>
       <c r="L26" t="n">
-        <v>1759.455860917491</v>
+        <v>3070.676773794163</v>
       </c>
       <c r="M26" t="n">
-        <v>2270.304689646426</v>
+        <v>3206.8069351314</v>
       </c>
       <c r="N26" t="n">
-        <v>3267.274165542116</v>
+        <v>3820.027254906163</v>
       </c>
       <c r="O26" t="n">
-        <v>4867.965301531018</v>
+        <v>5420.718390895065</v>
       </c>
       <c r="P26" t="n">
-        <v>6282.306354802173</v>
+        <v>6282.306354802172</v>
       </c>
       <c r="Q26" t="n">
         <v>7136</v>
       </c>
       <c r="R26" t="n">
-        <v>7128.947239365305</v>
+        <v>7128.947239365303</v>
       </c>
       <c r="S26" t="n">
-        <v>6718.471233248435</v>
+        <v>6718.471233248433</v>
       </c>
       <c r="T26" t="n">
-        <v>6143.037816527465</v>
+        <v>6143.037816527463</v>
       </c>
       <c r="U26" t="n">
-        <v>5487.572482269394</v>
+        <v>5487.572482269392</v>
       </c>
       <c r="V26" t="n">
-        <v>4851.359326545329</v>
+        <v>4851.359326545327</v>
       </c>
       <c r="W26" t="n">
-        <v>4206.537633635281</v>
+        <v>4206.537633635279</v>
       </c>
       <c r="X26" t="n">
-        <v>3608.273155392182</v>
+        <v>3608.27315539218</v>
       </c>
       <c r="Y26" t="n">
-        <v>3091.790900157024</v>
+        <v>3091.790900157022</v>
       </c>
     </row>
     <row r="27">
@@ -6287,25 +6287,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>858.9195952961838</v>
+        <v>1423.8520496984</v>
       </c>
       <c r="C27" t="n">
-        <v>494.1722089875785</v>
+        <v>1278.113679022282</v>
       </c>
       <c r="D27" t="n">
-        <v>142.72</v>
+        <v>1278.113679022282</v>
       </c>
       <c r="E27" t="n">
-        <v>142.72</v>
+        <v>931.9802474849964</v>
       </c>
       <c r="F27" t="n">
-        <v>142.72</v>
+        <v>931.9802474849964</v>
       </c>
       <c r="G27" t="n">
-        <v>142.72</v>
+        <v>605.0488225531529</v>
       </c>
       <c r="H27" t="n">
-        <v>142.72</v>
+        <v>289.7917181556082</v>
       </c>
       <c r="I27" t="n">
         <v>142.72</v>
@@ -6335,28 +6335,28 @@
         <v>4300.369696020461</v>
       </c>
       <c r="R27" t="n">
-        <v>4167.736977138729</v>
+        <v>4300.369696020461</v>
       </c>
       <c r="S27" t="n">
-        <v>3735.437241618245</v>
+        <v>4300.369696020461</v>
       </c>
       <c r="T27" t="n">
-        <v>3334.44301550765</v>
+        <v>3899.375469909866</v>
       </c>
       <c r="U27" t="n">
-        <v>2930.328180103454</v>
+        <v>3495.26063450567</v>
       </c>
       <c r="V27" t="n">
-        <v>2511.630536475656</v>
+        <v>3076.562990877872</v>
       </c>
       <c r="W27" t="n">
-        <v>2074.889988081889</v>
+        <v>2639.822442484106</v>
       </c>
       <c r="X27" t="n">
-        <v>1650.786210864326</v>
+        <v>2215.718665266542</v>
       </c>
       <c r="Y27" t="n">
-        <v>1247.360561605605</v>
+        <v>1812.293016007821</v>
       </c>
     </row>
     <row r="28">
@@ -6366,22 +6366,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>229.7065938790994</v>
+        <v>229.7065938790993</v>
       </c>
       <c r="C28" t="n">
-        <v>229.7065938790994</v>
+        <v>229.7065938790993</v>
       </c>
       <c r="D28" t="n">
-        <v>229.7065938790994</v>
+        <v>229.7065938790993</v>
       </c>
       <c r="E28" t="n">
-        <v>229.7065938790994</v>
+        <v>229.7065938790993</v>
       </c>
       <c r="F28" t="n">
-        <v>229.7065938790994</v>
+        <v>229.7065938790993</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7065938790994</v>
+        <v>229.7065938790993</v>
       </c>
       <c r="H28" t="n">
         <v>142.72</v>
@@ -6390,52 +6390,52 @@
         <v>142.72</v>
       </c>
       <c r="J28" t="n">
-        <v>229.7065938790994</v>
+        <v>229.7065938790993</v>
       </c>
       <c r="K28" t="n">
-        <v>229.7065938790994</v>
+        <v>229.7065938790993</v>
       </c>
       <c r="L28" t="n">
-        <v>229.7065938790994</v>
+        <v>229.7065938790993</v>
       </c>
       <c r="M28" t="n">
-        <v>229.7065938790994</v>
+        <v>229.7065938790993</v>
       </c>
       <c r="N28" t="n">
-        <v>229.7065938790994</v>
+        <v>229.7065938790993</v>
       </c>
       <c r="O28" t="n">
-        <v>229.7065938790994</v>
+        <v>229.7065938790993</v>
       </c>
       <c r="P28" t="n">
-        <v>229.7065938790994</v>
+        <v>229.7065938790993</v>
       </c>
       <c r="Q28" t="n">
-        <v>229.7065938790994</v>
+        <v>229.7065938790993</v>
       </c>
       <c r="R28" t="n">
-        <v>229.7065938790994</v>
+        <v>229.7065938790993</v>
       </c>
       <c r="S28" t="n">
-        <v>229.7065938790994</v>
+        <v>229.7065938790993</v>
       </c>
       <c r="T28" t="n">
-        <v>229.7065938790994</v>
+        <v>229.7065938790993</v>
       </c>
       <c r="U28" t="n">
-        <v>229.7065938790994</v>
+        <v>229.7065938790993</v>
       </c>
       <c r="V28" t="n">
-        <v>229.7065938790994</v>
+        <v>229.7065938790993</v>
       </c>
       <c r="W28" t="n">
-        <v>229.7065938790994</v>
+        <v>229.7065938790993</v>
       </c>
       <c r="X28" t="n">
-        <v>229.7065938790994</v>
+        <v>229.7065938790993</v>
       </c>
       <c r="Y28" t="n">
-        <v>229.7065938790994</v>
+        <v>229.7065938790993</v>
       </c>
     </row>
     <row r="29">
@@ -6445,22 +6445,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2604.922907272605</v>
+        <v>2604.922907272603</v>
       </c>
       <c r="C29" t="n">
-        <v>2150.908181774632</v>
+        <v>2150.90818177463</v>
       </c>
       <c r="D29" t="n">
-        <v>1736.424186077814</v>
+        <v>1736.424186077812</v>
       </c>
       <c r="E29" t="n">
-        <v>1327.976418798149</v>
+        <v>1327.976418798147</v>
       </c>
       <c r="F29" t="n">
-        <v>918.9969958607638</v>
+        <v>918.996995860762</v>
       </c>
       <c r="G29" t="n">
-        <v>515.0831808375187</v>
+        <v>515.0831808375174</v>
       </c>
       <c r="H29" t="n">
         <v>143.117519933622</v>
@@ -6469,52 +6469,52 @@
         <v>142.72</v>
       </c>
       <c r="J29" t="n">
-        <v>534.0291130376557</v>
+        <v>860.2726437330556</v>
       </c>
       <c r="K29" t="n">
-        <v>1243.735479385524</v>
+        <v>2058.933492682376</v>
       </c>
       <c r="L29" t="n">
-        <v>2150.764973955147</v>
+        <v>2058.933492682376</v>
       </c>
       <c r="M29" t="n">
-        <v>2936.030426311841</v>
+        <v>2569.782321411311</v>
       </c>
       <c r="N29" t="n">
-        <v>4235.121805051324</v>
+        <v>3267.274165542115</v>
       </c>
       <c r="O29" t="n">
-        <v>5835.812941040226</v>
+        <v>4867.965301531017</v>
       </c>
       <c r="P29" t="n">
-        <v>6697.400904947333</v>
+        <v>6282.306354802172</v>
       </c>
       <c r="Q29" t="n">
         <v>7136</v>
       </c>
       <c r="R29" t="n">
-        <v>7128.947239365305</v>
+        <v>7128.947239365303</v>
       </c>
       <c r="S29" t="n">
-        <v>6718.471233248435</v>
+        <v>6718.471233248433</v>
       </c>
       <c r="T29" t="n">
-        <v>6143.037816527465</v>
+        <v>6143.037816527463</v>
       </c>
       <c r="U29" t="n">
-        <v>5487.572482269394</v>
+        <v>5487.572482269392</v>
       </c>
       <c r="V29" t="n">
-        <v>4851.359326545329</v>
+        <v>4851.359326545327</v>
       </c>
       <c r="W29" t="n">
-        <v>4206.537633635281</v>
+        <v>4206.537633635279</v>
       </c>
       <c r="X29" t="n">
-        <v>3608.273155392182</v>
+        <v>3608.27315539218</v>
       </c>
       <c r="Y29" t="n">
-        <v>3091.790900157024</v>
+        <v>3091.790900157022</v>
       </c>
     </row>
     <row r="30">
@@ -6524,25 +6524,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>973.1507808172739</v>
+        <v>972.4615946718</v>
       </c>
       <c r="C30" t="n">
-        <v>784.9085293293883</v>
+        <v>972.4615946718</v>
       </c>
       <c r="D30" t="n">
-        <v>784.9085293293883</v>
+        <v>621.0093856842216</v>
       </c>
       <c r="E30" t="n">
-        <v>784.9085293293883</v>
+        <v>289.7917181556082</v>
       </c>
       <c r="F30" t="n">
-        <v>784.9085293293883</v>
+        <v>289.7917181556082</v>
       </c>
       <c r="G30" t="n">
-        <v>457.9771043975448</v>
+        <v>289.7917181556082</v>
       </c>
       <c r="H30" t="n">
-        <v>142.72</v>
+        <v>289.7917181556082</v>
       </c>
       <c r="I30" t="n">
         <v>142.72</v>
@@ -6581,19 +6581,19 @@
         <v>3044.559365624544</v>
       </c>
       <c r="U30" t="n">
-        <v>3044.559365624544</v>
+        <v>2640.444530220348</v>
       </c>
       <c r="V30" t="n">
-        <v>2625.861721996746</v>
+        <v>2221.74688659255</v>
       </c>
       <c r="W30" t="n">
-        <v>2189.12117360298</v>
+        <v>1785.006338198784</v>
       </c>
       <c r="X30" t="n">
-        <v>1765.017396385416</v>
+        <v>1360.902560981221</v>
       </c>
       <c r="Y30" t="n">
-        <v>1361.591747126695</v>
+        <v>1360.902560981221</v>
       </c>
     </row>
     <row r="31">
@@ -6603,22 +6603,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="C31" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="D31" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="E31" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="F31" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="H31" t="n">
         <v>142.72</v>
@@ -6627,52 +6627,52 @@
         <v>142.72</v>
       </c>
       <c r="J31" t="n">
-        <v>229.7065938790994</v>
+        <v>229.7065938790993</v>
       </c>
       <c r="K31" t="n">
-        <v>229.7065938790994</v>
+        <v>229.7065938790993</v>
       </c>
       <c r="L31" t="n">
-        <v>229.7065938790994</v>
+        <v>229.7065938790993</v>
       </c>
       <c r="M31" t="n">
-        <v>229.7065938790994</v>
+        <v>229.7065938790993</v>
       </c>
       <c r="N31" t="n">
-        <v>229.7065938790994</v>
+        <v>229.7065938790993</v>
       </c>
       <c r="O31" t="n">
-        <v>229.7065938790994</v>
+        <v>229.7065938790993</v>
       </c>
       <c r="P31" t="n">
-        <v>229.7065938790994</v>
+        <v>229.7065938790993</v>
       </c>
       <c r="Q31" t="n">
-        <v>229.7065938790994</v>
+        <v>229.7065938790993</v>
       </c>
       <c r="R31" t="n">
-        <v>229.7065938790994</v>
+        <v>229.7065938790993</v>
       </c>
       <c r="S31" t="n">
-        <v>229.7065938790994</v>
+        <v>229.7065938790993</v>
       </c>
       <c r="T31" t="n">
-        <v>229.7065938790994</v>
+        <v>229.7065938790993</v>
       </c>
       <c r="U31" t="n">
-        <v>229.7065938790994</v>
+        <v>229.7065938790993</v>
       </c>
       <c r="V31" t="n">
-        <v>229.7065938790994</v>
+        <v>229.7065938790993</v>
       </c>
       <c r="W31" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="X31" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
       <c r="Y31" t="n">
-        <v>229.7065938790994</v>
+        <v>142.72</v>
       </c>
     </row>
     <row r="32">
@@ -6682,22 +6682,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2604.922907272606</v>
+        <v>2604.922907272605</v>
       </c>
       <c r="C32" t="n">
-        <v>2150.908181774631</v>
+        <v>2150.908181774632</v>
       </c>
       <c r="D32" t="n">
-        <v>1736.424186077813</v>
+        <v>1736.424186077814</v>
       </c>
       <c r="E32" t="n">
-        <v>1327.976418798148</v>
+        <v>1327.976418798149</v>
       </c>
       <c r="F32" t="n">
-        <v>918.9969958607618</v>
+        <v>918.9969958607638</v>
       </c>
       <c r="G32" t="n">
-        <v>515.0831808375174</v>
+        <v>515.0831808375187</v>
       </c>
       <c r="H32" t="n">
         <v>143.117519933622</v>
@@ -6706,25 +6706,25 @@
         <v>142.72</v>
       </c>
       <c r="J32" t="n">
-        <v>534.0291130376557</v>
+        <v>860.2726437330556</v>
       </c>
       <c r="K32" t="n">
-        <v>1732.689961986976</v>
+        <v>1569.979010080924</v>
       </c>
       <c r="L32" t="n">
-        <v>3246.310728536619</v>
+        <v>2695.958106402466</v>
       </c>
       <c r="M32" t="n">
-        <v>4269.550077243507</v>
+        <v>3206.806935131401</v>
       </c>
       <c r="N32" t="n">
-        <v>4882.77039701827</v>
+        <v>3820.027254906164</v>
       </c>
       <c r="O32" t="n">
-        <v>5835.812941040227</v>
+        <v>5420.718390895066</v>
       </c>
       <c r="P32" t="n">
-        <v>6697.400904947334</v>
+        <v>6282.306354802173</v>
       </c>
       <c r="Q32" t="n">
         <v>7136</v>
@@ -6761,22 +6761,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>569.0359454130785</v>
+        <v>1548.11993828587</v>
       </c>
       <c r="C33" t="n">
-        <v>457.9771043975448</v>
+        <v>1183.372551977265</v>
       </c>
       <c r="D33" t="n">
-        <v>457.9771043975448</v>
+        <v>831.9203429896864</v>
       </c>
       <c r="E33" t="n">
-        <v>457.9771043975448</v>
+        <v>485.7869114524009</v>
       </c>
       <c r="F33" t="n">
-        <v>457.9771043975448</v>
+        <v>142.72</v>
       </c>
       <c r="G33" t="n">
-        <v>457.9771043975448</v>
+        <v>142.72</v>
       </c>
       <c r="H33" t="n">
         <v>142.72</v>
@@ -6809,28 +6809,28 @@
         <v>4300.369696020461</v>
       </c>
       <c r="R33" t="n">
-        <v>3877.853327255624</v>
+        <v>4300.369696020461</v>
       </c>
       <c r="S33" t="n">
-        <v>3445.553591735139</v>
+        <v>4300.369696020461</v>
       </c>
       <c r="T33" t="n">
-        <v>3044.559365624544</v>
+        <v>3899.375469909866</v>
       </c>
       <c r="U33" t="n">
-        <v>2640.444530220348</v>
+        <v>3495.26063450567</v>
       </c>
       <c r="V33" t="n">
-        <v>2221.74688659255</v>
+        <v>3076.562990877872</v>
       </c>
       <c r="W33" t="n">
-        <v>1785.006338198784</v>
+        <v>2764.090331071576</v>
       </c>
       <c r="X33" t="n">
-        <v>1360.902560981221</v>
+        <v>2339.986553854013</v>
       </c>
       <c r="Y33" t="n">
-        <v>957.4769117224993</v>
+        <v>1936.560904595291</v>
       </c>
     </row>
     <row r="34">
@@ -6943,25 +6943,25 @@
         <v>142.72</v>
       </c>
       <c r="J35" t="n">
-        <v>534.0291130376557</v>
+        <v>860.2726437330556</v>
       </c>
       <c r="K35" t="n">
-        <v>1243.735479385524</v>
+        <v>1569.979010080924</v>
       </c>
       <c r="L35" t="n">
-        <v>2150.764973955147</v>
+        <v>2477.008504650546</v>
       </c>
       <c r="M35" t="n">
-        <v>2661.613802684082</v>
+        <v>3168.584468133626</v>
       </c>
       <c r="N35" t="n">
-        <v>3274.834122458845</v>
+        <v>4467.67584687311</v>
       </c>
       <c r="O35" t="n">
-        <v>4875.525258447747</v>
+        <v>5420.718390895066</v>
       </c>
       <c r="P35" t="n">
-        <v>6289.866311718902</v>
+        <v>6282.306354802174</v>
       </c>
       <c r="Q35" t="n">
         <v>7136</v>
@@ -6998,22 +6998,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>973.1507808172739</v>
+        <v>1860.592598092166</v>
       </c>
       <c r="C36" t="n">
-        <v>840.305640524864</v>
+        <v>1495.845211783561</v>
       </c>
       <c r="D36" t="n">
-        <v>488.8534315372855</v>
+        <v>1144.393002795983</v>
       </c>
       <c r="E36" t="n">
-        <v>142.72</v>
+        <v>798.259571258697</v>
       </c>
       <c r="F36" t="n">
-        <v>142.72</v>
+        <v>784.9085293293883</v>
       </c>
       <c r="G36" t="n">
-        <v>142.72</v>
+        <v>457.9771043975448</v>
       </c>
       <c r="H36" t="n">
         <v>142.72</v>
@@ -7046,28 +7046,28 @@
         <v>4300.369696020461</v>
       </c>
       <c r="R36" t="n">
-        <v>3877.853327255624</v>
+        <v>4300.369696020461</v>
       </c>
       <c r="S36" t="n">
-        <v>3445.553591735139</v>
+        <v>4300.369696020461</v>
       </c>
       <c r="T36" t="n">
-        <v>3044.559365624544</v>
+        <v>3899.375469909866</v>
       </c>
       <c r="U36" t="n">
-        <v>3044.559365624544</v>
+        <v>3495.26063450567</v>
       </c>
       <c r="V36" t="n">
-        <v>2625.861721996746</v>
+        <v>3076.562990877872</v>
       </c>
       <c r="W36" t="n">
-        <v>2189.12117360298</v>
+        <v>3076.562990877872</v>
       </c>
       <c r="X36" t="n">
-        <v>1765.017396385416</v>
+        <v>2652.459213660309</v>
       </c>
       <c r="Y36" t="n">
-        <v>1361.591747126695</v>
+        <v>2249.033564401587</v>
       </c>
     </row>
     <row r="37">
@@ -7077,22 +7077,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>142.72</v>
+        <v>229.7065938790994</v>
       </c>
       <c r="C37" t="n">
-        <v>142.72</v>
+        <v>229.7065938790994</v>
       </c>
       <c r="D37" t="n">
-        <v>142.72</v>
+        <v>229.7065938790994</v>
       </c>
       <c r="E37" t="n">
-        <v>142.72</v>
+        <v>229.7065938790994</v>
       </c>
       <c r="F37" t="n">
-        <v>142.72</v>
+        <v>229.7065938790994</v>
       </c>
       <c r="G37" t="n">
-        <v>142.72</v>
+        <v>229.7065938790994</v>
       </c>
       <c r="H37" t="n">
         <v>142.72</v>
@@ -7134,19 +7134,19 @@
         <v>229.7065938790994</v>
       </c>
       <c r="U37" t="n">
-        <v>142.72</v>
+        <v>229.7065938790994</v>
       </c>
       <c r="V37" t="n">
-        <v>142.72</v>
+        <v>229.7065938790994</v>
       </c>
       <c r="W37" t="n">
-        <v>142.72</v>
+        <v>229.7065938790994</v>
       </c>
       <c r="X37" t="n">
-        <v>142.72</v>
+        <v>229.7065938790994</v>
       </c>
       <c r="Y37" t="n">
-        <v>142.72</v>
+        <v>229.7065938790994</v>
       </c>
     </row>
     <row r="38">
@@ -7159,22 +7159,22 @@
         <v>2604.922907272605</v>
       </c>
       <c r="C38" t="n">
-        <v>2150.908181774631</v>
+        <v>2150.908181774632</v>
       </c>
       <c r="D38" t="n">
-        <v>1736.424186077813</v>
+        <v>1736.424186077814</v>
       </c>
       <c r="E38" t="n">
-        <v>1327.976418798148</v>
+        <v>1327.976418798149</v>
       </c>
       <c r="F38" t="n">
-        <v>918.996995860762</v>
+        <v>918.9969958607638</v>
       </c>
       <c r="G38" t="n">
-        <v>515.0831808375176</v>
+        <v>515.0831808375187</v>
       </c>
       <c r="H38" t="n">
-        <v>143.1175199336222</v>
+        <v>143.117519933622</v>
       </c>
       <c r="I38" t="n">
         <v>142.72</v>
@@ -7189,43 +7189,43 @@
         <v>3572.554259232019</v>
       </c>
       <c r="M38" t="n">
-        <v>4083.403087960954</v>
+        <v>4758.352755664085</v>
       </c>
       <c r="N38" t="n">
-        <v>4696.623407735718</v>
+        <v>5420.718390895066</v>
       </c>
       <c r="O38" t="n">
-        <v>5835.812941040226</v>
+        <v>5420.718390895066</v>
       </c>
       <c r="P38" t="n">
-        <v>6697.400904947333</v>
+        <v>6282.306354802173</v>
       </c>
       <c r="Q38" t="n">
         <v>7136</v>
       </c>
       <c r="R38" t="n">
-        <v>7128.947239365304</v>
+        <v>7128.947239365305</v>
       </c>
       <c r="S38" t="n">
-        <v>6718.471233248434</v>
+        <v>6718.471233248435</v>
       </c>
       <c r="T38" t="n">
-        <v>6143.037816527464</v>
+        <v>6143.037816527465</v>
       </c>
       <c r="U38" t="n">
-        <v>5487.572482269393</v>
+        <v>5487.572482269394</v>
       </c>
       <c r="V38" t="n">
-        <v>4851.359326545328</v>
+        <v>4851.359326545329</v>
       </c>
       <c r="W38" t="n">
-        <v>4206.53763363528</v>
+        <v>4206.537633635281</v>
       </c>
       <c r="X38" t="n">
-        <v>3608.273155392181</v>
+        <v>3608.273155392182</v>
       </c>
       <c r="Y38" t="n">
-        <v>3091.790900157023</v>
+        <v>3091.790900157024</v>
       </c>
     </row>
     <row r="39">
@@ -7235,25 +7235,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>569.0359454130785</v>
+        <v>1548.11993828587</v>
       </c>
       <c r="C39" t="n">
-        <v>289.7917181556082</v>
+        <v>1183.372551977265</v>
       </c>
       <c r="D39" t="n">
-        <v>289.7917181556082</v>
+        <v>831.9203429896864</v>
       </c>
       <c r="E39" t="n">
-        <v>289.7917181556082</v>
+        <v>485.7869114524009</v>
       </c>
       <c r="F39" t="n">
-        <v>289.7917181556082</v>
+        <v>142.72</v>
       </c>
       <c r="G39" t="n">
-        <v>289.7917181556082</v>
+        <v>142.72</v>
       </c>
       <c r="H39" t="n">
-        <v>289.7917181556082</v>
+        <v>142.72</v>
       </c>
       <c r="I39" t="n">
         <v>142.72</v>
@@ -7283,28 +7283,28 @@
         <v>4300.369696020461</v>
       </c>
       <c r="R39" t="n">
-        <v>3877.853327255624</v>
+        <v>4300.369696020461</v>
       </c>
       <c r="S39" t="n">
-        <v>3445.553591735139</v>
+        <v>3868.069960499976</v>
       </c>
       <c r="T39" t="n">
-        <v>3044.559365624544</v>
+        <v>3467.075734389381</v>
       </c>
       <c r="U39" t="n">
-        <v>2640.444530220348</v>
+        <v>3062.960898985185</v>
       </c>
       <c r="V39" t="n">
-        <v>2221.74688659255</v>
+        <v>2644.263255357387</v>
       </c>
       <c r="W39" t="n">
-        <v>1785.006338198784</v>
+        <v>2207.522706963621</v>
       </c>
       <c r="X39" t="n">
-        <v>1360.902560981221</v>
+        <v>1783.418929746058</v>
       </c>
       <c r="Y39" t="n">
-        <v>957.4769117224993</v>
+        <v>1783.418929746058</v>
       </c>
     </row>
     <row r="40">
@@ -7405,37 +7405,37 @@
         <v>1327.976418798148</v>
       </c>
       <c r="F41" t="n">
-        <v>918.996995860762</v>
+        <v>918.9969958607618</v>
       </c>
       <c r="G41" t="n">
-        <v>515.0831808375176</v>
+        <v>515.0831808375174</v>
       </c>
       <c r="H41" t="n">
-        <v>143.1175199336222</v>
+        <v>143.117519933622</v>
       </c>
       <c r="I41" t="n">
         <v>142.72</v>
       </c>
       <c r="J41" t="n">
-        <v>534.0291130376557</v>
+        <v>860.2726437330556</v>
       </c>
       <c r="K41" t="n">
-        <v>1243.735479385524</v>
+        <v>1569.979010080924</v>
       </c>
       <c r="L41" t="n">
-        <v>2150.764973955147</v>
+        <v>2477.008504650546</v>
       </c>
       <c r="M41" t="n">
-        <v>2661.613802684082</v>
+        <v>2987.857333379482</v>
       </c>
       <c r="N41" t="n">
-        <v>3682.368715687277</v>
+        <v>3601.077653154245</v>
       </c>
       <c r="O41" t="n">
-        <v>5283.059851676178</v>
+        <v>4867.965301531018</v>
       </c>
       <c r="P41" t="n">
-        <v>6697.400904947333</v>
+        <v>6282.306354802173</v>
       </c>
       <c r="Q41" t="n">
         <v>7136</v>
@@ -7472,16 +7472,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>973.1507808172739</v>
+        <v>2337.380185770867</v>
       </c>
       <c r="C42" t="n">
-        <v>973.1507808172739</v>
+        <v>1972.632799462261</v>
       </c>
       <c r="D42" t="n">
-        <v>973.1507808172739</v>
+        <v>1621.180590474683</v>
       </c>
       <c r="E42" t="n">
-        <v>973.1507808172739</v>
+        <v>1275.047158937397</v>
       </c>
       <c r="F42" t="n">
         <v>931.9802474849965</v>
@@ -7520,28 +7520,28 @@
         <v>4300.369696020461</v>
       </c>
       <c r="R42" t="n">
-        <v>3877.853327255624</v>
+        <v>4300.369696020461</v>
       </c>
       <c r="S42" t="n">
-        <v>3445.553591735139</v>
+        <v>4300.369696020461</v>
       </c>
       <c r="T42" t="n">
-        <v>3044.559365624544</v>
+        <v>3899.375469909866</v>
       </c>
       <c r="U42" t="n">
-        <v>3044.559365624544</v>
+        <v>3495.26063450567</v>
       </c>
       <c r="V42" t="n">
-        <v>2625.861721996746</v>
+        <v>3495.26063450567</v>
       </c>
       <c r="W42" t="n">
-        <v>2189.12117360298</v>
+        <v>3058.520086111904</v>
       </c>
       <c r="X42" t="n">
-        <v>1765.017396385416</v>
+        <v>3058.520086111904</v>
       </c>
       <c r="Y42" t="n">
-        <v>1361.591747126695</v>
+        <v>2655.094436853182</v>
       </c>
     </row>
     <row r="43">
@@ -7551,22 +7551,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>142.72</v>
+        <v>229.7065938790994</v>
       </c>
       <c r="C43" t="n">
-        <v>142.72</v>
+        <v>229.7065938790994</v>
       </c>
       <c r="D43" t="n">
-        <v>142.72</v>
+        <v>229.7065938790994</v>
       </c>
       <c r="E43" t="n">
-        <v>142.72</v>
+        <v>229.7065938790994</v>
       </c>
       <c r="F43" t="n">
-        <v>142.72</v>
+        <v>229.7065938790994</v>
       </c>
       <c r="G43" t="n">
-        <v>142.72</v>
+        <v>229.7065938790994</v>
       </c>
       <c r="H43" t="n">
         <v>142.72</v>
@@ -7614,13 +7614,13 @@
         <v>229.7065938790994</v>
       </c>
       <c r="W43" t="n">
-        <v>142.72</v>
+        <v>229.7065938790994</v>
       </c>
       <c r="X43" t="n">
-        <v>142.72</v>
+        <v>229.7065938790994</v>
       </c>
       <c r="Y43" t="n">
-        <v>142.72</v>
+        <v>229.7065938790994</v>
       </c>
     </row>
     <row r="44">
@@ -7654,22 +7654,22 @@
         <v>142.72</v>
       </c>
       <c r="J44" t="n">
-        <v>534.0291130376557</v>
+        <v>860.2726437330556</v>
       </c>
       <c r="K44" t="n">
-        <v>1243.735479385524</v>
+        <v>1569.979010080924</v>
       </c>
       <c r="L44" t="n">
-        <v>2150.764973955147</v>
+        <v>2695.958106402466</v>
       </c>
       <c r="M44" t="n">
-        <v>2661.613802684082</v>
+        <v>3206.806935131401</v>
       </c>
       <c r="N44" t="n">
-        <v>3274.834122458845</v>
+        <v>3820.027254906164</v>
       </c>
       <c r="O44" t="n">
-        <v>4867.965301531018</v>
+        <v>5420.718390895066</v>
       </c>
       <c r="P44" t="n">
         <v>6282.306354802173</v>
@@ -7709,25 +7709,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>973.1507808172739</v>
+        <v>2279.290241719965</v>
       </c>
       <c r="C45" t="n">
-        <v>608.4033945086685</v>
+        <v>1914.542855411359</v>
       </c>
       <c r="D45" t="n">
-        <v>256.9511855210901</v>
+        <v>1621.180590474683</v>
       </c>
       <c r="E45" t="n">
-        <v>142.72</v>
+        <v>1275.047158937397</v>
       </c>
       <c r="F45" t="n">
-        <v>142.72</v>
+        <v>931.9802474849965</v>
       </c>
       <c r="G45" t="n">
-        <v>142.72</v>
+        <v>605.0488225531531</v>
       </c>
       <c r="H45" t="n">
-        <v>142.72</v>
+        <v>289.7917181556082</v>
       </c>
       <c r="I45" t="n">
         <v>142.72</v>
@@ -7757,28 +7757,28 @@
         <v>4300.369696020461</v>
       </c>
       <c r="R45" t="n">
-        <v>3877.853327255624</v>
+        <v>4300.369696020461</v>
       </c>
       <c r="S45" t="n">
-        <v>3445.553591735139</v>
+        <v>4300.369696020461</v>
       </c>
       <c r="T45" t="n">
-        <v>3044.559365624544</v>
+        <v>3899.375469909866</v>
       </c>
       <c r="U45" t="n">
-        <v>3044.559365624544</v>
+        <v>3495.26063450567</v>
       </c>
       <c r="V45" t="n">
-        <v>2625.861721996746</v>
+        <v>3495.26063450567</v>
       </c>
       <c r="W45" t="n">
-        <v>2189.12117360298</v>
+        <v>3495.26063450567</v>
       </c>
       <c r="X45" t="n">
-        <v>1765.017396385416</v>
+        <v>3071.156857288107</v>
       </c>
       <c r="Y45" t="n">
-        <v>1361.591747126695</v>
+        <v>2667.731208029385</v>
       </c>
     </row>
     <row r="46">
@@ -7842,13 +7842,13 @@
         <v>229.7065938790994</v>
       </c>
       <c r="T46" t="n">
-        <v>142.72</v>
+        <v>229.7065938790994</v>
       </c>
       <c r="U46" t="n">
-        <v>142.72</v>
+        <v>229.7065938790994</v>
       </c>
       <c r="V46" t="n">
-        <v>142.72</v>
+        <v>229.7065938790994</v>
       </c>
       <c r="W46" t="n">
         <v>142.72</v>
@@ -8242,7 +8242,7 @@
         <v>870.5779326741233</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R5" t="n">
         <v>294.54111633436</v>
@@ -8476,7 +8476,7 @@
         <v>1032.917105959907</v>
       </c>
       <c r="P8" t="n">
-        <v>870.5779326741233</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>615.8520732695737</v>
@@ -8953,7 +8953,7 @@
         <v>870.5779326741233</v>
       </c>
       <c r="Q14" t="n">
-        <v>615.8520732695737</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>294.54111633436</v>
@@ -9643,7 +9643,7 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J23" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>716.8751175230994</v>
@@ -9889,7 +9889,7 @@
         <v>916.1914086561842</v>
       </c>
       <c r="M26" t="n">
-        <v>1060.271045550332</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>1096.663422488788</v>
@@ -10123,7 +10123,7 @@
         <v>716.8751175230994</v>
       </c>
       <c r="L29" t="n">
-        <v>916.1914086561842</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>1060.271045550332</v>
@@ -10843,7 +10843,7 @@
         <v>1096.663422488788</v>
       </c>
       <c r="O38" t="n">
-        <v>1032.917105959907</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>870.5779326741233</v>
@@ -23342,7 +23342,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>384.5565566463266</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -23354,7 +23354,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>154.0176640173867</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>323.662110682525</v>
@@ -23390,13 +23390,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>418.2912050771884</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>427.97673816528</v>
       </c>
       <c r="T12" t="n">
-        <v>396.9842838494889</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -23411,7 +23411,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>156.7598581324575</v>
       </c>
     </row>
     <row r="13">
@@ -23439,7 +23439,7 @@
         <v>243.3022293453712</v>
       </c>
       <c r="H13" t="n">
-        <v>127.1696041681886</v>
+        <v>213.286332108497</v>
       </c>
       <c r="I13" t="n">
         <v>124.2574857538132</v>
@@ -23478,7 +23478,7 @@
         <v>202.5829988408516</v>
       </c>
       <c r="U13" t="n">
-        <v>150.8633925383038</v>
+        <v>64.74666459799549</v>
       </c>
       <c r="V13" t="n">
         <v>199.1703102162162</v>
@@ -23582,19 +23582,19 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>361.0999124455193</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>347.9376868977026</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>339.6362423378769</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>323.662110682525</v>
       </c>
       <c r="H15" t="n">
         <v>312.1045333535693</v>
@@ -23630,10 +23630,10 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>232.6726267566985</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>396.9842838494889</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -23645,10 +23645,10 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>184.5262715172326</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>399.3913927661343</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23676,7 +23676,7 @@
         <v>243.3022293453712</v>
       </c>
       <c r="H16" t="n">
-        <v>213.286332108497</v>
+        <v>127.1696041681886</v>
       </c>
       <c r="I16" t="n">
         <v>124.2574857538132</v>
@@ -23715,7 +23715,7 @@
         <v>202.5829988408516</v>
       </c>
       <c r="U16" t="n">
-        <v>64.74666459799546</v>
+        <v>150.8633925383038</v>
       </c>
       <c r="V16" t="n">
         <v>199.1703102162162</v>
@@ -23816,7 +23816,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>151.6105551007414</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -23828,7 +23828,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>154.0176640173867</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>323.662110682525</v>
@@ -23870,7 +23870,7 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>396.9842838494889</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -23885,7 +23885,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>399.3913927661343</v>
       </c>
     </row>
     <row r="19">
@@ -23907,13 +23907,13 @@
         <v>280.9809048369565</v>
       </c>
       <c r="F19" t="n">
-        <v>188.2661280274336</v>
+        <v>274.3828559677419</v>
       </c>
       <c r="G19" t="n">
         <v>243.3022293453712</v>
       </c>
       <c r="H19" t="n">
-        <v>213.286332108497</v>
+        <v>127.1696041681886</v>
       </c>
       <c r="I19" t="n">
         <v>124.2574857538132</v>
@@ -24056,22 +24056,22 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>174.7400834725126</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>347.9376868977026</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>342.6720972219126</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>339.6362423378769</v>
+        <v>123.0252097015956</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>323.662110682525</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>312.1045333535693</v>
       </c>
       <c r="I21" t="n">
         <v>145.6010009740521</v>
@@ -24101,16 +24101,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>418.2912050771884</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>427.97673816528</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>400.0736870501537</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -24150,7 +24150,7 @@
         <v>243.3022293453712</v>
       </c>
       <c r="H22" t="n">
-        <v>127.1696041681886</v>
+        <v>213.286332108497</v>
       </c>
       <c r="I22" t="n">
         <v>124.2574857538132</v>
@@ -24192,7 +24192,7 @@
         <v>150.8633925383038</v>
       </c>
       <c r="V22" t="n">
-        <v>199.1703102162162</v>
+        <v>113.0535822759078</v>
       </c>
       <c r="W22" t="n">
         <v>226.3728098387097</v>
@@ -24290,25 +24290,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>151.6105551007414</v>
       </c>
       <c r="C24" t="n">
-        <v>174.7400834725125</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>347.9376868977026</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>342.6720972219126</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>339.6362423378769</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>323.662110682525</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>312.1045333535693</v>
       </c>
       <c r="I24" t="n">
         <v>145.6010009740521</v>
@@ -24338,7 +24338,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>418.2912050771884</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -24347,7 +24347,7 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>400.0736870501537</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -24359,7 +24359,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>399.3913927661343</v>
       </c>
     </row>
     <row r="25">
@@ -24387,7 +24387,7 @@
         <v>243.3022293453712</v>
       </c>
       <c r="H25" t="n">
-        <v>127.1696041681887</v>
+        <v>127.1696041681886</v>
       </c>
       <c r="I25" t="n">
         <v>124.2574857538132</v>
@@ -24530,25 +24530,25 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>216.8189254761625</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>347.9376868977026</v>
       </c>
       <c r="E27" t="n">
-        <v>342.6720972219126</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>339.6362423378769</v>
       </c>
       <c r="G27" t="n">
-        <v>323.662110682525</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>312.1045333535693</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>145.6010009740521</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24575,10 +24575,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>286.9848133842744</v>
+        <v>418.2912050771884</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>427.97673816528</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -24624,7 +24624,7 @@
         <v>243.3022293453712</v>
       </c>
       <c r="H28" t="n">
-        <v>127.1696041681886</v>
+        <v>127.1696041681887</v>
       </c>
       <c r="I28" t="n">
         <v>124.2574857538132</v>
@@ -24767,25 +24767,25 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>174.7400834725126</v>
+        <v>361.0999124455193</v>
       </c>
       <c r="D30" t="n">
-        <v>347.9376868977026</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>342.6720972219126</v>
+        <v>14.76660636858537</v>
       </c>
       <c r="F30" t="n">
         <v>339.6362423378769</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>323.662110682525</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>312.1045333535693</v>
       </c>
       <c r="I30" t="n">
-        <v>145.6010009740521</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24821,7 +24821,7 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>400.0736870501537</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -24833,7 +24833,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>399.3913927661343</v>
       </c>
     </row>
     <row r="31">
@@ -24861,7 +24861,7 @@
         <v>243.3022293453712</v>
       </c>
       <c r="H31" t="n">
-        <v>127.1696041681886</v>
+        <v>213.286332108497</v>
       </c>
       <c r="I31" t="n">
         <v>124.2574857538132</v>
@@ -24906,7 +24906,7 @@
         <v>199.1703102162162</v>
       </c>
       <c r="W31" t="n">
-        <v>226.3728098387097</v>
+        <v>140.2560818984014</v>
       </c>
       <c r="X31" t="n">
         <v>247.4436454301076</v>
@@ -25004,22 +25004,22 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>251.151659840141</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>347.9376868977026</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>342.6720972219126</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>339.6362423378769</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>323.662110682525</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>312.1045333535693</v>
       </c>
       <c r="I33" t="n">
         <v>145.6010009740521</v>
@@ -25049,10 +25049,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>418.2912050771884</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>427.97673816528</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -25064,7 +25064,7 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>123.0252097015958</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -25241,7 +25241,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>229.5832235560335</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -25250,13 +25250,13 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>339.6362423378769</v>
+        <v>326.4187108278613</v>
       </c>
       <c r="G36" t="n">
-        <v>323.662110682525</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>312.1045333535693</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>145.6010009740521</v>
@@ -25286,22 +25286,22 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>418.2912050771884</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>427.97673816528</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>400.0736870501537</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>432.3731429098285</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -25335,7 +25335,7 @@
         <v>243.3022293453712</v>
       </c>
       <c r="H37" t="n">
-        <v>213.286332108497</v>
+        <v>127.1696041681886</v>
       </c>
       <c r="I37" t="n">
         <v>124.2574857538132</v>
@@ -25374,7 +25374,7 @@
         <v>202.5829988408516</v>
       </c>
       <c r="U37" t="n">
-        <v>64.74666459799546</v>
+        <v>150.8633925383038</v>
       </c>
       <c r="V37" t="n">
         <v>199.1703102162162</v>
@@ -25475,19 +25475,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>151.6105551007414</v>
       </c>
       <c r="C39" t="n">
-        <v>84.64812746062375</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>347.9376868977026</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>342.6720972219126</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>339.6362423378769</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>323.662110682525</v>
@@ -25496,7 +25496,7 @@
         <v>312.1045333535693</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>145.6010009740521</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25523,7 +25523,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>418.2912050771884</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -25544,7 +25544,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>399.3913927661343</v>
       </c>
     </row>
     <row r="40">
@@ -25712,19 +25712,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>70.01944807483426</v>
       </c>
       <c r="C42" t="n">
-        <v>361.0999124455193</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>347.9376868977026</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>342.6720972219126</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>298.8774143389223</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -25760,25 +25760,25 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>418.2912050771884</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>427.97673816528</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>400.0736870501537</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>414.5106671915202</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>419.8627394453875</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -25809,7 +25809,7 @@
         <v>243.3022293453712</v>
       </c>
       <c r="H43" t="n">
-        <v>213.286332108497</v>
+        <v>127.1696041681886</v>
       </c>
       <c r="I43" t="n">
         <v>124.2574857538132</v>
@@ -25854,7 +25854,7 @@
         <v>199.1703102162162</v>
       </c>
       <c r="W43" t="n">
-        <v>140.2560818984013</v>
+        <v>226.3728098387097</v>
       </c>
       <c r="X43" t="n">
         <v>247.4436454301076</v>
@@ -25955,22 +25955,22 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>57.509044610393</v>
       </c>
       <c r="E45" t="n">
-        <v>229.5832235560335</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>339.6362423378769</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>323.662110682525</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>312.1045333535693</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>145.6010009740521</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25997,22 +25997,22 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>418.2912050771884</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>427.97673816528</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>400.0736870501537</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>414.5106671915202</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>432.3731429098285</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -26082,7 +26082,7 @@
         <v>332.021383501614</v>
       </c>
       <c r="T46" t="n">
-        <v>116.4662709005433</v>
+        <v>202.5829988408516</v>
       </c>
       <c r="U46" t="n">
         <v>150.8633925383038</v>
@@ -26091,7 +26091,7 @@
         <v>199.1703102162162</v>
       </c>
       <c r="W46" t="n">
-        <v>226.3728098387097</v>
+        <v>140.2560818984013</v>
       </c>
       <c r="X46" t="n">
         <v>247.4436454301076</v>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15961.27270175422</v>
+        <v>1353830.318357539</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>31922.54540350845</v>
+        <v>2707660.636715078</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>47883.81810526265</v>
+        <v>4061490.955072618</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>67184.90268414965</v>
+        <v>5169275.347392689</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>86485.98726303663</v>
+        <v>6277059.739712758</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>105787.0718419236</v>
+        <v>7384844.132032825</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>125088.1564208105</v>
+        <v>8492628.524352886</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>144389.2409996975</v>
+        <v>9600412.916672949</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>163690.3255785845</v>
+        <v>10708197.30899301</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>182991.4101574715</v>
+        <v>11815981.70131307</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>202292.4947363585</v>
+        <v>12923766.09363314</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>221593.5793152454</v>
+        <v>14031550.4859532</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>240894.6638941327</v>
+        <v>15139334.87827326</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>260195.74847302</v>
+        <v>16247119.27059334</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>279496.8330519074</v>
+        <v>17354903.66291342</v>
       </c>
     </row>
   </sheetData>
@@ -26322,46 +26322,46 @@
         <v>850079.5022245019</v>
       </c>
       <c r="C2" t="n">
-        <v>850079.502224502</v>
+        <v>850079.5022245019</v>
       </c>
       <c r="D2" t="n">
-        <v>850079.502224502</v>
+        <v>850079.5022245022</v>
       </c>
       <c r="E2" t="n">
+        <v>695585.5486660909</v>
+      </c>
+      <c r="F2" t="n">
         <v>695585.5486660913</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>695585.5486660913</v>
+      </c>
+      <c r="H2" t="n">
+        <v>695585.5486660912</v>
+      </c>
+      <c r="I2" t="n">
+        <v>695585.5486660913</v>
+      </c>
+      <c r="J2" t="n">
+        <v>695585.5486660911</v>
+      </c>
+      <c r="K2" t="n">
+        <v>695585.5486660913</v>
+      </c>
+      <c r="L2" t="n">
+        <v>695585.5486660913</v>
+      </c>
+      <c r="M2" t="n">
         <v>695585.5486660914</v>
       </c>
-      <c r="G2" t="n">
-        <v>695585.5486660912</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="N2" t="n">
+        <v>695585.5486660913</v>
+      </c>
+      <c r="O2" t="n">
+        <v>695585.5486660908</v>
+      </c>
+      <c r="P2" t="n">
         <v>695585.5486660911</v>
-      </c>
-      <c r="I2" t="n">
-        <v>695585.5486660912</v>
-      </c>
-      <c r="J2" t="n">
-        <v>695585.5486660914</v>
-      </c>
-      <c r="K2" t="n">
-        <v>695585.5486660914</v>
-      </c>
-      <c r="L2" t="n">
-        <v>695585.5486660914</v>
-      </c>
-      <c r="M2" t="n">
-        <v>695585.5486660913</v>
-      </c>
-      <c r="N2" t="n">
-        <v>695585.5486660914</v>
-      </c>
-      <c r="O2" t="n">
-        <v>695585.5486660913</v>
-      </c>
-      <c r="P2" t="n">
-        <v>695585.5486660913</v>
       </c>
     </row>
     <row r="3">
@@ -26432,40 +26432,40 @@
         <v>131325.2342200931</v>
       </c>
       <c r="E4" t="n">
-        <v>1113.69259600661</v>
+        <v>1113.692596006615</v>
       </c>
       <c r="F4" t="n">
+        <v>1113.6925960066</v>
+      </c>
+      <c r="G4" t="n">
         <v>1113.692596006615</v>
       </c>
-      <c r="G4" t="n">
-        <v>1113.692596006605</v>
-      </c>
       <c r="H4" t="n">
-        <v>1113.692596006615</v>
+        <v>1113.692596006603</v>
       </c>
       <c r="I4" t="n">
         <v>1113.692596006615</v>
       </c>
       <c r="J4" t="n">
-        <v>1113.692596006615</v>
+        <v>1113.692596006643</v>
       </c>
       <c r="K4" t="n">
         <v>1113.692596006615</v>
       </c>
       <c r="L4" t="n">
-        <v>1113.69259600657</v>
+        <v>1113.692596006615</v>
       </c>
       <c r="M4" t="n">
+        <v>1113.69259600658</v>
+      </c>
+      <c r="N4" t="n">
         <v>1113.692596006615</v>
       </c>
-      <c r="N4" t="n">
-        <v>1113.692596006604</v>
-      </c>
       <c r="O4" t="n">
-        <v>1113.692596006604</v>
+        <v>1113.692596006625</v>
       </c>
       <c r="P4" t="n">
-        <v>1113.692596006615</v>
+        <v>1113.692596006625</v>
       </c>
     </row>
     <row r="5">
@@ -26530,13 +26530,13 @@
         <v>-1015270.844785848</v>
       </c>
       <c r="C6" t="n">
-        <v>555073.5545624947</v>
+        <v>555073.5545624946</v>
       </c>
       <c r="D6" t="n">
-        <v>555600.6680044089</v>
+        <v>555600.6680044091</v>
       </c>
       <c r="E6" t="n">
-        <v>564945.8560700847</v>
+        <v>564945.8560700843</v>
       </c>
       <c r="F6" t="n">
         <v>564945.8560700847</v>
@@ -26545,31 +26545,31 @@
         <v>564945.8560700846</v>
       </c>
       <c r="H6" t="n">
-        <v>564945.8560700844</v>
+        <v>564945.8560700846</v>
       </c>
       <c r="I6" t="n">
         <v>564945.8560700846</v>
       </c>
       <c r="J6" t="n">
-        <v>-63022.14392991521</v>
+        <v>-63022.1439299155</v>
       </c>
       <c r="K6" t="n">
         <v>564945.8560700847</v>
       </c>
       <c r="L6" t="n">
+        <v>564945.8560700846</v>
+      </c>
+      <c r="M6" t="n">
         <v>564945.8560700848</v>
       </c>
-      <c r="M6" t="n">
+      <c r="N6" t="n">
         <v>564945.8560700846</v>
       </c>
-      <c r="N6" t="n">
-        <v>564945.8560700848</v>
-      </c>
       <c r="O6" t="n">
-        <v>564945.8560700847</v>
+        <v>564945.8560700841</v>
       </c>
       <c r="P6" t="n">
-        <v>564945.8560700846</v>
+        <v>564945.8560700844</v>
       </c>
     </row>
   </sheetData>
@@ -27590,19 +27590,19 @@
         <v>384.5565566463266</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>361.0999124455193</v>
       </c>
       <c r="D3" t="n">
-        <v>245.1003539598602</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>342.6720972219126</v>
       </c>
       <c r="F3" t="n">
-        <v>339.6362423378769</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>323.662110682525</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>312.1045333535693</v>
@@ -27656,7 +27656,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>204.6266973128302</v>
       </c>
     </row>
     <row r="4">
@@ -27672,19 +27672,19 @@
         <v>272.7252466480447</v>
       </c>
       <c r="D4" t="n">
+        <v>285.5362180555555</v>
+      </c>
+      <c r="E4" t="n">
+        <v>280.9809048369565</v>
+      </c>
+      <c r="F4" t="n">
         <v>400</v>
-      </c>
-      <c r="E4" t="n">
-        <v>400</v>
-      </c>
-      <c r="F4" t="n">
-        <v>355.8514877550194</v>
       </c>
       <c r="G4" t="n">
         <v>243.3022293453712</v>
       </c>
       <c r="H4" t="n">
-        <v>213.286332108497</v>
+        <v>400</v>
       </c>
       <c r="I4" t="n">
         <v>124.2574857538132</v>
@@ -27696,7 +27696,7 @@
         <v>86.17346579286669</v>
       </c>
       <c r="L4" t="n">
-        <v>164.6127396470317</v>
+        <v>167.2334366180362</v>
       </c>
       <c r="M4" t="n">
         <v>247.6210768183003</v>
@@ -27827,13 +27827,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>278.6833688244485</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>347.9376868977026</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>342.6720972219126</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -27881,13 +27881,13 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>169.2931529440637</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>243.3022293453712</v>
       </c>
       <c r="H7" t="n">
-        <v>326.9459539466668</v>
+        <v>213.286332108497</v>
       </c>
       <c r="I7" t="n">
         <v>124.2574857538132</v>
@@ -27930,7 +27930,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>400</v>
+        <v>86.17346579286669</v>
       </c>
       <c r="L7" t="n">
         <v>164.6127396470317</v>
@@ -27954,13 +27954,13 @@
         <v>400</v>
       </c>
       <c r="S7" t="n">
-        <v>332.021383501614</v>
+        <v>400</v>
       </c>
       <c r="T7" t="n">
-        <v>202.5829988408516</v>
+        <v>400</v>
       </c>
       <c r="U7" t="n">
-        <v>150.8633925383038</v>
+        <v>312.9539309260726</v>
       </c>
       <c r="V7" t="n">
         <v>199.1703102162162</v>
@@ -28064,25 +28064,25 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>361.0999124455193</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>347.9376868977026</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>342.6720972219126</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>339.6362423378769</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>47.2103256976294</v>
       </c>
       <c r="H9" t="n">
         <v>312.1045333535693</v>
       </c>
       <c r="I9" t="n">
-        <v>145.6010009740521</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -28118,16 +28118,16 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>92.95526362658882</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -28161,10 +28161,10 @@
         <v>213.286332108497</v>
       </c>
       <c r="I10" t="n">
-        <v>400</v>
+        <v>124.2574857538132</v>
       </c>
       <c r="J10" t="n">
-        <v>151.7436417991165</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>86.17346579286669</v>
@@ -28173,7 +28173,7 @@
         <v>164.6127396470317</v>
       </c>
       <c r="M10" t="n">
-        <v>247.6210768183003</v>
+        <v>348.9236881324208</v>
       </c>
       <c r="N10" t="n">
         <v>304.6661209913</v>
@@ -28203,10 +28203,10 @@
         <v>199.1703102162162</v>
       </c>
       <c r="W10" t="n">
-        <v>226.3728098387097</v>
+        <v>400</v>
       </c>
       <c r="X10" t="n">
-        <v>247.4436454301076</v>
+        <v>400</v>
       </c>
       <c r="Y10" t="n">
         <v>287.4653528494624</v>
@@ -31183,25 +31183,25 @@
         <v>329.5389198943433</v>
       </c>
       <c r="K2" t="n">
-        <v>493.8934167691431</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>612.7184565454758</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>188.0272619015669</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>221.1612138908263</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>654.1904969363086</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>419.2874243890514</v>
       </c>
       <c r="R2" t="n">
         <v>243.8963657999445</v>
@@ -31420,13 +31420,13 @@
         <v>329.5389198943433</v>
       </c>
       <c r="K5" t="n">
-        <v>493.8934167691431</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>612.7184565454758</v>
+        <v>193.5843697128612</v>
       </c>
       <c r="M5" t="n">
-        <v>72.7201969405786</v>
+        <v>681.7673411142738</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -31435,10 +31435,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>558.3364539030787</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>172.8226843274854</v>
+        <v>419.2874243890514</v>
       </c>
       <c r="R5" t="n">
         <v>243.8963657999445</v>
@@ -31654,25 +31654,25 @@
         <v>149.6876149483989</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>329.5389198943433</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>493.8934167691431</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>558.9501172321206</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>692.7990494593133</v>
       </c>
       <c r="O8" t="n">
-        <v>646.5541768183996</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>558.3364539030787</v>
+        <v>0.2870600406814136</v>
       </c>
       <c r="Q8" t="n">
         <v>419.2874243890514</v>
@@ -31891,19 +31891,19 @@
         <v>149.6876149483989</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>329.5389198943433</v>
       </c>
       <c r="K11" t="n">
-        <v>493.8934167691431</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>612.7184565454758</v>
+        <v>182.552661367823</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>517.5661817959119</v>
+        <v>692.7990494593133</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -31912,7 +31912,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>419.2874243890514</v>
       </c>
       <c r="R11" t="n">
         <v>243.8963657999445</v>
@@ -32128,13 +32128,13 @@
         <v>149.6876149483989</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>329.5389198943433</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>185.68627809192</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>612.7184565454758</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -32143,13 +32143,13 @@
         <v>692.7990494593133</v>
       </c>
       <c r="O14" t="n">
-        <v>373.0425517481381</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>558.3364539030787</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>419.2874243890514</v>
       </c>
       <c r="R14" t="n">
         <v>243.8963657999445</v>
@@ -32365,19 +32365,19 @@
         <v>149.6876149483989</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>329.5389198943433</v>
       </c>
       <c r="K17" t="n">
-        <v>493.8934167691431</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>612.7184565454758</v>
       </c>
       <c r="M17" t="n">
-        <v>98.27875740686102</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>262.6332542816606</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -32602,22 +32602,22 @@
         <v>149.6876149483989</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>329.5389198943433</v>
       </c>
       <c r="K20" t="n">
-        <v>493.8934167691431</v>
+        <v>27.73018173440278</v>
       </c>
       <c r="L20" t="n">
         <v>612.7184565454758</v>
       </c>
       <c r="M20" t="n">
-        <v>517.566181795912</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>654.1904969363086</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -32842,25 +32842,25 @@
         <v>329.5389198943433</v>
       </c>
       <c r="K23" t="n">
-        <v>493.8934167691431</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>612.7184565454758</v>
       </c>
       <c r="M23" t="n">
-        <v>188.0272619015669</v>
+        <v>38.7474939315083</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>654.1904969363086</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>419.2874243890514</v>
       </c>
       <c r="R23" t="n">
         <v>243.8963657999445</v>
@@ -33076,25 +33076,25 @@
         <v>149.6876149483989</v>
       </c>
       <c r="J26" t="n">
-        <v>35.04300624509033</v>
+        <v>329.5389198943433</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>493.8934167691431</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>536.076238143899</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>681.7673411142738</v>
       </c>
       <c r="N26" t="n">
-        <v>387.6254102231586</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>654.1904969363086</v>
       </c>
       <c r="P26" t="n">
-        <v>558.3364539030787</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>419.2874243890514</v>
@@ -33313,28 +33313,28 @@
         <v>149.6876149483989</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>329.5389198943433</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>493.8934167691431</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>277.1885087149084</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>692.7990494593133</v>
+        <v>85.12275187478872</v>
       </c>
       <c r="O29" t="n">
         <v>654.1904969363086</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>558.3364539030787</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>419.2874243890514</v>
       </c>
       <c r="R29" t="n">
         <v>243.8963657999445</v>
@@ -33550,28 +33550,28 @@
         <v>149.6876149483989</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>329.5389198943433</v>
       </c>
       <c r="K32" t="n">
-        <v>493.8934167691431</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>612.7184565454758</v>
+        <v>221.1612138908276</v>
       </c>
       <c r="M32" t="n">
-        <v>517.566181795912</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>654.1904969363086</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>419.2874243890514</v>
       </c>
       <c r="R32" t="n">
         <v>243.8963657999445</v>
@@ -33787,7 +33787,7 @@
         <v>149.6876149483989</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>329.5389198943433</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -33796,19 +33796,19 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>182.5526613678229</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>692.7990494593133</v>
       </c>
       <c r="O35" t="n">
-        <v>654.1904969363086</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>558.3364539030787</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>411.6511042711433</v>
+        <v>419.2874243890514</v>
       </c>
       <c r="R35" t="n">
         <v>243.8963657999445</v>
@@ -34033,19 +34033,19 @@
         <v>612.7184565454758</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>681.7673411142738</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>49.64173278405815</v>
       </c>
       <c r="O38" t="n">
-        <v>188.0272619015677</v>
+        <v>70.24786957409245</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>419.2874243890514</v>
       </c>
       <c r="R38" t="n">
         <v>243.8963657999445</v>
@@ -34261,7 +34261,7 @@
         <v>149.6876149483989</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>329.5389198943433</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -34273,16 +34273,16 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>411.6511042711429</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>654.1904969363086</v>
+        <v>317.0152569240572</v>
       </c>
       <c r="P41" t="n">
         <v>558.3364539030787</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>419.2874243890514</v>
       </c>
       <c r="R41" t="n">
         <v>243.8963657999445</v>
@@ -34498,13 +34498,13 @@
         <v>149.6876149483989</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>329.5389198943433</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>221.1612138908276</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -34513,10 +34513,10 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>646.5541768184005</v>
+        <v>654.1904969363086</v>
       </c>
       <c r="P44" t="n">
-        <v>558.3364539030787</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>419.2874243890514</v>
@@ -34831,25 +34831,25 @@
         <v>724.8006502354096</v>
       </c>
       <c r="K2" t="n">
-        <v>1210.768534292243</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L2" t="n">
-        <v>1528.90986520166</v>
+        <v>916.1914086561842</v>
       </c>
       <c r="M2" t="n">
-        <v>704.0361798095821</v>
+        <v>516.0089179080152</v>
       </c>
       <c r="N2" t="n">
-        <v>619.4144644189528</v>
+        <v>840.5756783097791</v>
       </c>
       <c r="O2" t="n">
-        <v>962.6692363858147</v>
+        <v>1616.859733322123</v>
       </c>
       <c r="P2" t="n">
         <v>870.2908726334418</v>
       </c>
       <c r="Q2" t="n">
-        <v>443.0293889420883</v>
+        <v>862.3168133311397</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34968,19 +34968,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>114.4637819444445</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>119.0190951630435</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>81.4686317872775</v>
+        <v>125.6171440322581</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>186.713667891503</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -34992,7 +34992,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>2.620696971004433</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -35068,13 +35068,13 @@
         <v>724.8006502354096</v>
       </c>
       <c r="K5" t="n">
-        <v>1210.768534292243</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L5" t="n">
-        <v>1528.90986520166</v>
+        <v>1109.775778369045</v>
       </c>
       <c r="M5" t="n">
-        <v>588.7291148485938</v>
+        <v>1197.776259022289</v>
       </c>
       <c r="N5" t="n">
         <v>619.4144644189528</v>
@@ -35083,10 +35083,10 @@
         <v>962.6692363858147</v>
       </c>
       <c r="P5" t="n">
-        <v>1428.627326536521</v>
+        <v>870.2908726334418</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>862.3168133311397</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35217,7 +35217,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>113.6596218381698</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -35226,7 +35226,7 @@
         <v>87.86524634252459</v>
       </c>
       <c r="K7" t="n">
-        <v>313.8265342071333</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -35250,13 +35250,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>67.97861649838602</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>197.4170011591484</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>162.0905383877688</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -35302,25 +35302,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>395.2617303410664</v>
+        <v>724.8006502354096</v>
       </c>
       <c r="K8" t="n">
-        <v>716.8751175230994</v>
+        <v>1210.768534292243</v>
       </c>
       <c r="L8" t="n">
-        <v>916.1914086561844</v>
+        <v>1475.141525888305</v>
       </c>
       <c r="M8" t="n">
         <v>516.0089179080152</v>
       </c>
       <c r="N8" t="n">
-        <v>619.4144644189528</v>
+        <v>1312.213513878266</v>
       </c>
       <c r="O8" t="n">
-        <v>1609.223413204214</v>
+        <v>962.6692363858147</v>
       </c>
       <c r="P8" t="n">
-        <v>1428.627326536521</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>862.3168133311397</v>
@@ -35457,10 +35457,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>275.7425142461868</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>239.608888141641</v>
+        <v>87.86524634252459</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -35469,7 +35469,7 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>101.3026113141204</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -35499,10 +35499,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>173.6271901612903</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>152.5563545698924</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -35539,19 +35539,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>395.2617303410664</v>
+        <v>724.8006502354096</v>
       </c>
       <c r="K11" t="n">
-        <v>1210.768534292242</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L11" t="n">
-        <v>1528.90986520166</v>
+        <v>1098.744070024007</v>
       </c>
       <c r="M11" t="n">
         <v>516.0089179080152</v>
       </c>
       <c r="N11" t="n">
-        <v>1136.980646214865</v>
+        <v>1312.213513878266</v>
       </c>
       <c r="O11" t="n">
         <v>962.6692363858147</v>
@@ -35560,7 +35560,7 @@
         <v>870.2908726334418</v>
       </c>
       <c r="Q11" t="n">
-        <v>443.0293889420883</v>
+        <v>862.3168133311397</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35776,13 +35776,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>395.2617303410664</v>
+        <v>724.8006502354096</v>
       </c>
       <c r="K14" t="n">
-        <v>716.8751175230994</v>
+        <v>902.5613956150195</v>
       </c>
       <c r="L14" t="n">
-        <v>916.1914086561844</v>
+        <v>1528.90986520166</v>
       </c>
       <c r="M14" t="n">
         <v>516.0089179080152</v>
@@ -35791,13 +35791,13 @@
         <v>1312.213513878266</v>
       </c>
       <c r="O14" t="n">
-        <v>1335.711788133953</v>
+        <v>962.6692363858147</v>
       </c>
       <c r="P14" t="n">
-        <v>1428.627326536521</v>
+        <v>870.2908726334418</v>
       </c>
       <c r="Q14" t="n">
-        <v>443.0293889420883</v>
+        <v>246.464740061566</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -36013,19 +36013,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>395.2617303410664</v>
+        <v>724.8006502354096</v>
       </c>
       <c r="K17" t="n">
-        <v>1210.768534292242</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L17" t="n">
         <v>1528.90986520166</v>
       </c>
       <c r="M17" t="n">
-        <v>614.2876753148762</v>
+        <v>516.0089179080152</v>
       </c>
       <c r="N17" t="n">
-        <v>619.4144644189528</v>
+        <v>882.0477187006134</v>
       </c>
       <c r="O17" t="n">
         <v>962.6692363858147</v>
@@ -36250,22 +36250,22 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>395.2617303410664</v>
+        <v>724.8006502354096</v>
       </c>
       <c r="K20" t="n">
-        <v>1210.768534292242</v>
+        <v>744.6052992575022</v>
       </c>
       <c r="L20" t="n">
         <v>1528.90986520166</v>
       </c>
       <c r="M20" t="n">
-        <v>1033.575099703927</v>
+        <v>516.0089179080152</v>
       </c>
       <c r="N20" t="n">
         <v>619.4144644189528</v>
       </c>
       <c r="O20" t="n">
-        <v>962.6692363858147</v>
+        <v>1616.859733322123</v>
       </c>
       <c r="P20" t="n">
         <v>870.2908726334418</v>
@@ -36487,28 +36487,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>724.8006502354096</v>
+        <v>294.4959136492529</v>
       </c>
       <c r="K23" t="n">
-        <v>1210.768534292243</v>
+        <v>716.8751175230996</v>
       </c>
       <c r="L23" t="n">
         <v>1528.90986520166</v>
       </c>
       <c r="M23" t="n">
-        <v>704.0361798095821</v>
+        <v>554.7564118395235</v>
       </c>
       <c r="N23" t="n">
         <v>619.4144644189528</v>
       </c>
       <c r="O23" t="n">
-        <v>962.6692363858147</v>
+        <v>1616.859733322123</v>
       </c>
       <c r="P23" t="n">
         <v>870.2908726334418</v>
       </c>
       <c r="Q23" t="n">
-        <v>443.0293889420883</v>
+        <v>862.3168133311397</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36724,25 +36724,25 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>294.4959136492529</v>
       </c>
       <c r="K26" t="n">
-        <v>716.8751175230994</v>
+        <v>1210.768534292243</v>
       </c>
       <c r="L26" t="n">
-        <v>916.1914086561843</v>
+        <v>1452.267646800083</v>
       </c>
       <c r="M26" t="n">
-        <v>516.0089179080152</v>
+        <v>137.5052134719565</v>
       </c>
       <c r="N26" t="n">
-        <v>1007.039874642111</v>
+        <v>619.4144644189528</v>
       </c>
       <c r="O26" t="n">
         <v>1616.859733322123</v>
       </c>
       <c r="P26" t="n">
-        <v>1428.627326536521</v>
+        <v>870.2908726334418</v>
       </c>
       <c r="Q26" t="n">
         <v>862.3168133311397</v>
@@ -36961,28 +36961,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>395.2617303410664</v>
+        <v>724.8006502354096</v>
       </c>
       <c r="K29" t="n">
-        <v>716.8751175230994</v>
+        <v>1210.768534292243</v>
       </c>
       <c r="L29" t="n">
-        <v>916.1914086561844</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>793.1974266229236</v>
+        <v>516.0089179080152</v>
       </c>
       <c r="N29" t="n">
-        <v>1312.213513878266</v>
+        <v>704.5372162937415</v>
       </c>
       <c r="O29" t="n">
         <v>1616.859733322123</v>
       </c>
       <c r="P29" t="n">
-        <v>870.2908726334418</v>
+        <v>1428.627326536521</v>
       </c>
       <c r="Q29" t="n">
-        <v>443.0293889420883</v>
+        <v>862.3168133311397</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -37198,28 +37198,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>395.2617303410664</v>
+        <v>724.8006502354096</v>
       </c>
       <c r="K32" t="n">
-        <v>1210.768534292242</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L32" t="n">
-        <v>1528.90986520166</v>
+        <v>1137.352622547012</v>
       </c>
       <c r="M32" t="n">
-        <v>1033.575099703927</v>
+        <v>516.0089179080152</v>
       </c>
       <c r="N32" t="n">
         <v>619.4144644189528</v>
       </c>
       <c r="O32" t="n">
-        <v>962.6692363858147</v>
+        <v>1616.859733322123</v>
       </c>
       <c r="P32" t="n">
         <v>870.2908726334418</v>
       </c>
       <c r="Q32" t="n">
-        <v>443.0293889420883</v>
+        <v>862.3168133311397</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37435,28 +37435,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>395.2617303410664</v>
+        <v>724.8006502354096</v>
       </c>
       <c r="K35" t="n">
         <v>716.8751175230994</v>
       </c>
       <c r="L35" t="n">
-        <v>916.1914086561844</v>
+        <v>916.1914086561842</v>
       </c>
       <c r="M35" t="n">
-        <v>516.0089179080152</v>
+        <v>698.5615792758381</v>
       </c>
       <c r="N35" t="n">
-        <v>619.4144644189528</v>
+        <v>1312.213513878266</v>
       </c>
       <c r="O35" t="n">
-        <v>1616.859733322123</v>
+        <v>962.6692363858147</v>
       </c>
       <c r="P35" t="n">
-        <v>1428.627326536521</v>
+        <v>870.2908726334418</v>
       </c>
       <c r="Q35" t="n">
-        <v>854.6804932132316</v>
+        <v>862.3168133311397</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37681,19 +37681,19 @@
         <v>1528.90986520166</v>
       </c>
       <c r="M38" t="n">
-        <v>516.0089179080152</v>
+        <v>1197.776259022289</v>
       </c>
       <c r="N38" t="n">
-        <v>619.4144644189528</v>
+        <v>669.0561972030109</v>
       </c>
       <c r="O38" t="n">
-        <v>1150.696498287382</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>870.2908726334418</v>
       </c>
       <c r="Q38" t="n">
-        <v>443.0293889420883</v>
+        <v>862.3168133311397</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37909,28 +37909,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>395.2617303410664</v>
+        <v>724.8006502354096</v>
       </c>
       <c r="K41" t="n">
         <v>716.8751175230994</v>
       </c>
       <c r="L41" t="n">
-        <v>916.1914086561844</v>
+        <v>916.1914086561842</v>
       </c>
       <c r="M41" t="n">
         <v>516.0089179080152</v>
       </c>
       <c r="N41" t="n">
-        <v>1031.065568690096</v>
+        <v>619.4144644189528</v>
       </c>
       <c r="O41" t="n">
-        <v>1616.859733322123</v>
+        <v>1279.684493309872</v>
       </c>
       <c r="P41" t="n">
         <v>1428.627326536521</v>
       </c>
       <c r="Q41" t="n">
-        <v>443.0293889420883</v>
+        <v>862.3168133311397</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -38146,13 +38146,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>395.2617303410664</v>
+        <v>724.8006502354096</v>
       </c>
       <c r="K44" t="n">
         <v>716.8751175230994</v>
       </c>
       <c r="L44" t="n">
-        <v>916.1914086561844</v>
+        <v>1137.352622547012</v>
       </c>
       <c r="M44" t="n">
         <v>516.0089179080152</v>
@@ -38161,10 +38161,10 @@
         <v>619.4144644189528</v>
       </c>
       <c r="O44" t="n">
-        <v>1609.223413204215</v>
+        <v>1616.859733322123</v>
       </c>
       <c r="P44" t="n">
-        <v>1428.627326536521</v>
+        <v>870.2908726334418</v>
       </c>
       <c r="Q44" t="n">
         <v>862.3168133311397</v>
